--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-686873.7650383249</v>
+        <v>-687690.7296612171</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736555</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.5193474360557</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="S8" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,61 +1212,61 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="D9" t="n">
-        <v>10.5193474360557</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="V9" t="n">
         <v>11.94294668035388</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="J10" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10.5193474360557</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>11.94294668035388</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>308.7593099586188</v>
       </c>
       <c r="C11" t="n">
-        <v>296.7706269163006</v>
+        <v>296.7706269163005</v>
       </c>
       <c r="D11" t="n">
         <v>287.7519309608285</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>309.494068530734</v>
       </c>
       <c r="F11" t="n">
-        <v>328.6658846187113</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>330.0811488463144</v>
+        <v>330.0811488463142</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>69.77489615835846</v>
+        <v>69.77489615835839</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.20888282571933</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>138.5040015774443</v>
+        <v>19.2146416623052</v>
       </c>
       <c r="U11" t="n">
-        <v>170.9512484653402</v>
+        <v>170.9512484653401</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>252.2656871987979</v>
       </c>
       <c r="W11" t="n">
-        <v>277.5657866767549</v>
+        <v>277.5657866767548</v>
       </c>
       <c r="X11" t="n">
-        <v>10.19903057376342</v>
+        <v>296.8660449095014</v>
       </c>
       <c r="Y11" t="n">
-        <v>308.2626427057003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.2617315661801</v>
       </c>
       <c r="I12" t="n">
-        <v>58.15601631523094</v>
+        <v>58.15601631523095</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.97841760700847</v>
+        <v>41.97841760700848</v>
       </c>
       <c r="S12" t="n">
         <v>146.1234335938568</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.75398183423025</v>
+        <v>100.3760208333158</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>86.57601567871632</v>
       </c>
       <c r="D13" t="n">
-        <v>70.19738007629479</v>
+        <v>70.19738007629471</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>69.14512993207416</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>69.61205426026046</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>85.65439836824052</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>74.36924529635618</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.23508121011825</v>
+        <v>56.23508121011818</v>
       </c>
       <c r="S13" t="n">
         <v>126.1794938804381</v>
       </c>
       <c r="T13" t="n">
-        <v>148.5105645038683</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>202.9618688453873</v>
+        <v>202.9618688453872</v>
       </c>
       <c r="V13" t="n">
-        <v>176.7841572329415</v>
+        <v>3.78685225750317</v>
       </c>
       <c r="W13" t="n">
-        <v>201.9510433035548</v>
+        <v>201.9510433035547</v>
       </c>
       <c r="X13" t="n">
-        <v>147.5961452993579</v>
+        <v>147.5961452993578</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.4710130554256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,13 +1610,13 @@
         <v>296.7706269163006</v>
       </c>
       <c r="D14" t="n">
-        <v>287.7519309608285</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>309.4940685307341</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>328.6658846187112</v>
       </c>
       <c r="G14" t="n">
         <v>330.0811488463143</v>
@@ -1625,7 +1625,7 @@
         <v>242.8442624109055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>69.77489615835843</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>92.2088828257193</v>
       </c>
       <c r="T14" t="n">
         <v>138.5040015774443</v>
@@ -1670,10 +1670,10 @@
         <v>277.5657866767548</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>53.87527329865239</v>
       </c>
       <c r="Y14" t="n">
-        <v>256.773005940613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.2617315661801</v>
       </c>
       <c r="I15" t="n">
-        <v>58.15601631523094</v>
+        <v>58.15601631523095</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.97841760700847</v>
+        <v>41.97841760700848</v>
       </c>
       <c r="S15" t="n">
         <v>146.1234335938568</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>100.3760208333159</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>70.19738007629476</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>69.14512993207421</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>18.4759342576201</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>85.65439836824059</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.42956257985009</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.23508121011822</v>
+        <v>51.81042228732789</v>
       </c>
       <c r="S16" t="n">
         <v>126.1794938804381</v>
@@ -1825,10 +1825,10 @@
         <v>176.7841572329415</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>201.9510433035547</v>
       </c>
       <c r="X16" t="n">
-        <v>147.5961452993579</v>
+        <v>147.5961452993578</v>
       </c>
       <c r="Y16" t="n">
         <v>138.4710130554255</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.24487308873233</v>
+        <v>19.24487308873235</v>
       </c>
       <c r="T17" t="n">
-        <v>65.53999184045733</v>
+        <v>65.53999184045732</v>
       </c>
       <c r="U17" t="n">
         <v>97.98723872835325</v>
@@ -1907,7 +1907,7 @@
         <v>204.6017769397679</v>
       </c>
       <c r="X17" t="n">
-        <v>223.9020351725145</v>
+        <v>223.9020351725136</v>
       </c>
       <c r="Y17" t="n">
         <v>235.2986329687133</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.97841760700847</v>
+        <v>41.97841760700848</v>
       </c>
       <c r="S18" t="n">
         <v>146.1234335938568</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.41201109632894</v>
+        <v>39.22706420423872</v>
       </c>
       <c r="C19" t="n">
         <v>13.61200594172942</v>
@@ -2017,7 +2017,7 @@
         <v>12.69038863125363</v>
       </c>
       <c r="H19" t="n">
-        <v>1.405235559369281</v>
+        <v>1.405235559369282</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>18.69510258984299</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>83.72563984120401</v>
+        <v>53.21548414345117</v>
       </c>
       <c r="T19" t="n">
         <v>75.5465547668813</v>
@@ -2144,7 +2144,7 @@
         <v>204.6017769397679</v>
       </c>
       <c r="X20" t="n">
-        <v>223.9020351725145</v>
+        <v>223.9020351725144</v>
       </c>
       <c r="Y20" t="n">
         <v>235.2986329687133</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.97841760700847</v>
+        <v>41.97841760700848</v>
       </c>
       <c r="S21" t="n">
         <v>146.1234335938568</v>
@@ -2254,13 +2254,13 @@
         <v>12.69038863125363</v>
       </c>
       <c r="H22" t="n">
-        <v>1.405235559369281</v>
+        <v>1.405235559369282</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.51015569775286</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>30.51015569775288</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>53.21548414345117</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.24487308873233</v>
+        <v>19.24487308873235</v>
       </c>
       <c r="T23" t="n">
-        <v>65.53999184045733</v>
+        <v>65.53999184045732</v>
       </c>
       <c r="U23" t="n">
         <v>97.98723872835325</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.97841760700847</v>
+        <v>41.97841760700848</v>
       </c>
       <c r="S24" t="n">
         <v>146.1234335938568</v>
@@ -2476,7 +2476,7 @@
         <v>27.41201109632894</v>
       </c>
       <c r="C25" t="n">
-        <v>44.12216163948229</v>
+        <v>13.61200594172942</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>12.69038863125363</v>
       </c>
       <c r="H25" t="n">
-        <v>1.405235559369281</v>
+        <v>1.405235559369282</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>53.21548414345117</v>
       </c>
       <c r="T25" t="n">
-        <v>75.5465547668813</v>
+        <v>106.0567104646341</v>
       </c>
       <c r="U25" t="n">
         <v>129.9978591084003</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.97841760700847</v>
+        <v>41.97841760700848</v>
       </c>
       <c r="S27" t="n">
         <v>146.1234335938568</v>
@@ -2810,7 +2810,7 @@
         <v>221.267451015542</v>
       </c>
       <c r="I29" t="n">
-        <v>48.1980847629949</v>
+        <v>48.19808476299488</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.63207143035574</v>
+        <v>70.63207143035572</v>
       </c>
       <c r="T29" t="n">
         <v>116.9271901820807</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.97841760700847</v>
+        <v>41.97841760700848</v>
       </c>
       <c r="S30" t="n">
         <v>146.1234335938568</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.79920943795234</v>
+        <v>78.79920943795233</v>
       </c>
       <c r="C31" t="n">
-        <v>64.99920428335282</v>
+        <v>64.99920428335281</v>
       </c>
       <c r="D31" t="n">
-        <v>48.62056868093121</v>
+        <v>48.6205686809312</v>
       </c>
       <c r="E31" t="n">
-        <v>47.56831853671066</v>
+        <v>47.56831853671065</v>
       </c>
       <c r="F31" t="n">
-        <v>48.03524286489697</v>
+        <v>48.03524286489696</v>
       </c>
       <c r="G31" t="n">
-        <v>64.07758697287703</v>
+        <v>64.07758697287701</v>
       </c>
       <c r="H31" t="n">
-        <v>52.79243390099269</v>
+        <v>52.79243390099268</v>
       </c>
       <c r="I31" t="n">
-        <v>32.85275118448654</v>
+        <v>32.85275118448652</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65826981475466</v>
+        <v>34.65826981475465</v>
       </c>
       <c r="S31" t="n">
         <v>104.6026824850746</v>
@@ -3047,7 +3047,7 @@
         <v>218.1775718504009</v>
       </c>
       <c r="I32" t="n">
-        <v>45.10820559785382</v>
+        <v>45.10820559785385</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.54219226521467</v>
+        <v>67.54219226521469</v>
       </c>
       <c r="T32" t="n">
         <v>113.8373110169397</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.97841760700847</v>
+        <v>41.97841760700848</v>
       </c>
       <c r="S33" t="n">
         <v>146.1234335938568</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.70933027281127</v>
+        <v>75.7093302728113</v>
       </c>
       <c r="C34" t="n">
-        <v>61.90932511821175</v>
+        <v>61.90932511821178</v>
       </c>
       <c r="D34" t="n">
-        <v>45.53068951579014</v>
+        <v>45.53068951579017</v>
       </c>
       <c r="E34" t="n">
-        <v>44.47843937156959</v>
+        <v>44.47843937156962</v>
       </c>
       <c r="F34" t="n">
-        <v>44.9453636997559</v>
+        <v>44.94536369975593</v>
       </c>
       <c r="G34" t="n">
-        <v>60.98770780773597</v>
+        <v>60.98770780773599</v>
       </c>
       <c r="H34" t="n">
-        <v>49.70255473585161</v>
+        <v>49.70255473585164</v>
       </c>
       <c r="I34" t="n">
-        <v>29.76287201934545</v>
+        <v>29.76287201934549</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>31.5683906496136</v>
+        <v>31.56839064961363</v>
       </c>
       <c r="S34" t="n">
         <v>101.5128033199335</v>
       </c>
       <c r="T34" t="n">
-        <v>123.8438739433636</v>
+        <v>123.8438739433637</v>
       </c>
       <c r="U34" t="n">
         <v>178.2951782848827</v>
@@ -3250,10 +3250,10 @@
         <v>177.2843527430501</v>
       </c>
       <c r="X34" t="n">
-        <v>122.9294547388532</v>
+        <v>122.9294547388533</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.8043224949209</v>
+        <v>113.804322494921</v>
       </c>
     </row>
     <row r="35">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.97841760700847</v>
+        <v>41.97841760700848</v>
       </c>
       <c r="S36" t="n">
         <v>146.1234335938568</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>30.51015569775287</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>12.69038863125363</v>
       </c>
       <c r="H37" t="n">
-        <v>1.405235559369281</v>
+        <v>1.405235559369282</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>30.51015569775277</v>
       </c>
       <c r="S37" t="n">
         <v>53.21548414345117</v>
@@ -3503,13 +3503,13 @@
         <v>235.7953002216319</v>
       </c>
       <c r="C38" t="n">
-        <v>223.8066171793137</v>
+        <v>223.8066171793136</v>
       </c>
       <c r="D38" t="n">
         <v>214.7879212238416</v>
       </c>
       <c r="E38" t="n">
-        <v>236.5300587937472</v>
+        <v>236.5300587937471</v>
       </c>
       <c r="F38" t="n">
         <v>255.7018748817243</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.24487308873239</v>
+        <v>19.24487308873233</v>
       </c>
       <c r="T38" t="n">
-        <v>65.53999184045739</v>
+        <v>65.53999184045733</v>
       </c>
       <c r="U38" t="n">
-        <v>97.9872387283533</v>
+        <v>97.98723872835325</v>
       </c>
       <c r="V38" t="n">
         <v>179.301677461811</v>
@@ -3566,7 +3566,7 @@
         <v>204.6017769397679</v>
       </c>
       <c r="X38" t="n">
-        <v>223.9020351725146</v>
+        <v>223.9020351725145</v>
       </c>
       <c r="Y38" t="n">
         <v>235.2986329687133</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.97841760700847</v>
+        <v>41.97841760700848</v>
       </c>
       <c r="S39" t="n">
         <v>146.1234335938568</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.412011096329</v>
+        <v>57.92216679408182</v>
       </c>
       <c r="C40" t="n">
-        <v>13.61200594172948</v>
+        <v>13.61200594172942</v>
       </c>
       <c r="D40" t="n">
-        <v>30.51015569775219</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>12.69038863125369</v>
+        <v>12.69038863125363</v>
       </c>
       <c r="H40" t="n">
-        <v>1.405235559369338</v>
+        <v>1.405235559369282</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>53.21548414345123</v>
+        <v>53.21548414345117</v>
       </c>
       <c r="T40" t="n">
-        <v>75.54655476688136</v>
+        <v>75.5465547668813</v>
       </c>
       <c r="U40" t="n">
-        <v>129.9978591084004</v>
+        <v>129.9978591084003</v>
       </c>
       <c r="V40" t="n">
-        <v>103.8201474959546</v>
+        <v>103.8201474959545</v>
       </c>
       <c r="W40" t="n">
         <v>128.9870335665678</v>
       </c>
       <c r="X40" t="n">
-        <v>74.63213556237096</v>
+        <v>74.63213556237091</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.50700331843865</v>
+        <v>65.50700331843859</v>
       </c>
     </row>
     <row r="41">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.97841760700847</v>
+        <v>41.97841760700848</v>
       </c>
       <c r="S42" t="n">
         <v>146.1234335938568</v>
@@ -3913,7 +3913,7 @@
         <v>12.69038863125355</v>
       </c>
       <c r="H43" t="n">
-        <v>1.405235559369196</v>
+        <v>31.91539125712279</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>83.72563984120492</v>
+        <v>53.21548414345109</v>
       </c>
       <c r="T43" t="n">
         <v>75.54655476688121</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.7953002216318</v>
+        <v>235.7953002216319</v>
       </c>
       <c r="C44" t="n">
         <v>223.8066171793136</v>
@@ -3992,7 +3992,7 @@
         <v>257.1171391093274</v>
       </c>
       <c r="H44" t="n">
-        <v>169.8802526739185</v>
+        <v>169.8802526739186</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.24487308873232</v>
+        <v>19.24487308873233</v>
       </c>
       <c r="T44" t="n">
-        <v>65.53999184045729</v>
+        <v>65.53999184045733</v>
       </c>
       <c r="U44" t="n">
-        <v>97.98723872835322</v>
+        <v>97.98723872835325</v>
       </c>
       <c r="V44" t="n">
         <v>179.301677461811</v>
@@ -4043,7 +4043,7 @@
         <v>223.9020351725145</v>
       </c>
       <c r="Y44" t="n">
-        <v>235.2986329687132</v>
+        <v>235.2986329687133</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.97841760700847</v>
+        <v>41.97841760700848</v>
       </c>
       <c r="S45" t="n">
         <v>146.1234335938568</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.41201109632891</v>
+        <v>27.41201109632894</v>
       </c>
       <c r="C46" t="n">
-        <v>13.61200594172939</v>
+        <v>13.61200594172942</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>12.69038863125361</v>
+        <v>12.69038863125363</v>
       </c>
       <c r="H46" t="n">
-        <v>1.405235559369253</v>
+        <v>1.405235559369282</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>83.72563984120436</v>
+        <v>53.21548414345117</v>
       </c>
       <c r="T46" t="n">
-        <v>75.54655476688127</v>
+        <v>106.0567104646341</v>
       </c>
       <c r="U46" t="n">
         <v>129.9978591084003</v>
@@ -4198,10 +4198,10 @@
         <v>128.9870335665678</v>
       </c>
       <c r="X46" t="n">
-        <v>74.63213556237088</v>
+        <v>74.63213556237091</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.50700331843856</v>
+        <v>65.50700331843859</v>
       </c>
     </row>
   </sheetData>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C8" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D8" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E8" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F8" t="n">
         <v>13.01901823983628</v>
@@ -4802,52 +4802,52 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J8" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K8" t="n">
-        <v>24.60247016152901</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L8" t="n">
-        <v>36.42598737507935</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="M8" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="N8" t="n">
-        <v>47.77178672141554</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="O8" t="n">
-        <v>47.77178672141554</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="P8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q8" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R8" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="S8" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="T8" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="U8" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="V8" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="W8" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="X8" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="Y8" t="n">
         <v>35.70820421600757</v>
-      </c>
-      <c r="S8" t="n">
-        <v>23.64462171059961</v>
-      </c>
-      <c r="T8" t="n">
-        <v>23.64462171059961</v>
-      </c>
-      <c r="U8" t="n">
-        <v>23.64462171059961</v>
-      </c>
-      <c r="V8" t="n">
-        <v>23.64462171059961</v>
-      </c>
-      <c r="W8" t="n">
-        <v>23.64462171059961</v>
-      </c>
-      <c r="X8" t="n">
-        <v>23.64462171059961</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="C9" t="n">
-        <v>11.58103920519164</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D9" t="n">
         <v>0.9554357344283108</v>
@@ -4881,22 +4881,22 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K9" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12.3012350807645</v>
+      </c>
+      <c r="N9" t="n">
         <v>24.12475229431485</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="M9" t="n">
-        <v>47.77178672141554</v>
-      </c>
-      <c r="N9" t="n">
-        <v>47.77178672141554</v>
-      </c>
-      <c r="O9" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="P9" t="n">
         <v>47.77178672141554</v>
@@ -4905,28 +4905,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="S9" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="T9" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U9" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="V9" t="n">
-        <v>35.70820421600757</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="W9" t="n">
-        <v>35.70820421600757</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="X9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
     </row>
     <row r="10">
@@ -4939,25 +4939,25 @@
         <v>23.64462171059961</v>
       </c>
       <c r="C10" t="n">
-        <v>11.58103920519164</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9554357344283108</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9554357344283108</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9554357344283108</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9554357344283108</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9554357344283108</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="J10" t="n">
         <v>0.9554357344283108</v>
@@ -4969,13 +4969,13 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="M10" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="N10" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O10" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P10" t="n">
         <v>47.77178672141554</v>
@@ -4984,10 +4984,10 @@
         <v>35.70820421600757</v>
       </c>
       <c r="R10" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="S10" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="T10" t="n">
         <v>23.64462171059961</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1380.306643533478</v>
+        <v>1360.941172737541</v>
       </c>
       <c r="C11" t="n">
-        <v>1080.538333517012</v>
+        <v>1061.172862721075</v>
       </c>
       <c r="D11" t="n">
-        <v>789.8798173949633</v>
+        <v>770.5143465990266</v>
       </c>
       <c r="E11" t="n">
-        <v>789.8798173949633</v>
+        <v>457.8940753558609</v>
       </c>
       <c r="F11" t="n">
-        <v>457.8940753558611</v>
+        <v>457.8940753558609</v>
       </c>
       <c r="G11" t="n">
-        <v>124.4787734908971</v>
+        <v>124.478773490897</v>
       </c>
       <c r="H11" t="n">
-        <v>124.4787734908971</v>
+        <v>124.478773490897</v>
       </c>
       <c r="I11" t="n">
         <v>53.99908040164613</v>
       </c>
       <c r="J11" t="n">
-        <v>169.5228895060747</v>
+        <v>169.5228895060748</v>
       </c>
       <c r="K11" t="n">
-        <v>474.8963507725022</v>
+        <v>474.8963507725023</v>
       </c>
       <c r="L11" t="n">
-        <v>903.709139341227</v>
+        <v>903.7091393412271</v>
       </c>
       <c r="M11" t="n">
         <v>1386.995648363613</v>
@@ -5054,7 +5054,7 @@
         <v>1856.831409968233</v>
       </c>
       <c r="O11" t="n">
-        <v>2248.241007356122</v>
+        <v>2248.241007356121</v>
       </c>
       <c r="P11" t="n">
         <v>2550.142583284549</v>
@@ -5066,25 +5066,25 @@
         <v>2699.954020082307</v>
       </c>
       <c r="S11" t="n">
-        <v>2606.813734399762</v>
+        <v>2699.954020082307</v>
       </c>
       <c r="T11" t="n">
-        <v>2466.910702503354</v>
+        <v>2680.545291130483</v>
       </c>
       <c r="U11" t="n">
-        <v>2294.232673750485</v>
+        <v>2507.867262377615</v>
       </c>
       <c r="V11" t="n">
-        <v>2294.232673750485</v>
+        <v>2253.053436924283</v>
       </c>
       <c r="W11" t="n">
-        <v>2013.863192258813</v>
+        <v>1972.683955432612</v>
       </c>
       <c r="X11" t="n">
-        <v>2003.561141174204</v>
+        <v>1672.819263604832</v>
       </c>
       <c r="Y11" t="n">
-        <v>1692.184734400769</v>
+        <v>1672.819263604832</v>
       </c>
     </row>
     <row r="12">
@@ -5118,10 +5118,10 @@
         <v>53.99908040164613</v>
       </c>
       <c r="J12" t="n">
-        <v>120.5398924658497</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="K12" t="n">
-        <v>394.3375784272677</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="L12" t="n">
         <v>394.3375784272677</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124.905524923156</v>
+        <v>514.1548618278506</v>
       </c>
       <c r="C13" t="n">
-        <v>124.905524923156</v>
+        <v>426.7043409402584</v>
       </c>
       <c r="D13" t="n">
-        <v>53.99908040164613</v>
+        <v>355.7978964187486</v>
       </c>
       <c r="E13" t="n">
-        <v>53.99908040164613</v>
+        <v>285.9543308307949</v>
       </c>
       <c r="F13" t="n">
-        <v>53.99908040164613</v>
+        <v>215.6391245072994</v>
       </c>
       <c r="G13" t="n">
-        <v>53.99908040164613</v>
+        <v>129.1195301959453</v>
       </c>
       <c r="H13" t="n">
         <v>53.99908040164613</v>
@@ -5197,13 +5197,13 @@
         <v>53.99908040164613</v>
       </c>
       <c r="J13" t="n">
-        <v>91.93081351170537</v>
+        <v>91.93081351170517</v>
       </c>
       <c r="K13" t="n">
-        <v>232.7912451884877</v>
+        <v>232.7912451884876</v>
       </c>
       <c r="L13" t="n">
-        <v>448.1286156784738</v>
+        <v>448.1286156784737</v>
       </c>
       <c r="M13" t="n">
         <v>682.7115141613576</v>
@@ -5221,28 +5221,28 @@
         <v>1361.716988726512</v>
       </c>
       <c r="R13" t="n">
-        <v>1304.913876393059</v>
+        <v>1304.91387639306</v>
       </c>
       <c r="S13" t="n">
-        <v>1177.459842170394</v>
+        <v>1177.459842170395</v>
       </c>
       <c r="T13" t="n">
-        <v>1027.449170954365</v>
+        <v>1177.459842170395</v>
       </c>
       <c r="U13" t="n">
-        <v>822.437182221651</v>
+        <v>972.4478534376804</v>
       </c>
       <c r="V13" t="n">
-        <v>643.8673264308011</v>
+        <v>968.6227501472731</v>
       </c>
       <c r="W13" t="n">
-        <v>439.8763735989275</v>
+        <v>764.6317973153997</v>
       </c>
       <c r="X13" t="n">
-        <v>290.7893581450306</v>
+        <v>615.544781861503</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9196479880351</v>
+        <v>615.544781861503</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1535.75871440678</v>
+        <v>1647.565633413084</v>
       </c>
       <c r="C14" t="n">
-        <v>1235.990404390315</v>
+        <v>1347.797323396619</v>
       </c>
       <c r="D14" t="n">
-        <v>945.3318882682656</v>
+        <v>1347.797323396619</v>
       </c>
       <c r="E14" t="n">
-        <v>632.7116170251005</v>
+        <v>1035.177052153454</v>
       </c>
       <c r="F14" t="n">
-        <v>632.7116170251005</v>
+        <v>703.1913101143514</v>
       </c>
       <c r="G14" t="n">
-        <v>299.2963151601365</v>
+        <v>369.7760082493875</v>
       </c>
       <c r="H14" t="n">
-        <v>53.99908040164613</v>
+        <v>124.4787734908971</v>
       </c>
       <c r="I14" t="n">
         <v>53.99908040164613</v>
       </c>
       <c r="J14" t="n">
-        <v>169.5228895060747</v>
+        <v>169.5228895060748</v>
       </c>
       <c r="K14" t="n">
-        <v>474.8963507725022</v>
+        <v>474.8963507725023</v>
       </c>
       <c r="L14" t="n">
-        <v>903.709139341227</v>
+        <v>903.7091393412271</v>
       </c>
       <c r="M14" t="n">
         <v>1386.995648363613</v>
@@ -5303,25 +5303,25 @@
         <v>2699.954020082307</v>
       </c>
       <c r="S14" t="n">
-        <v>2699.954020082307</v>
+        <v>2606.813734399762</v>
       </c>
       <c r="T14" t="n">
-        <v>2560.050988185898</v>
+        <v>2466.910702503354</v>
       </c>
       <c r="U14" t="n">
-        <v>2387.372959433029</v>
+        <v>2294.232673750485</v>
       </c>
       <c r="V14" t="n">
-        <v>2387.372959433029</v>
+        <v>2294.232673750485</v>
       </c>
       <c r="W14" t="n">
-        <v>2107.003477941358</v>
+        <v>2013.863192258813</v>
       </c>
       <c r="X14" t="n">
-        <v>2107.003477941358</v>
+        <v>1959.443724280376</v>
       </c>
       <c r="Y14" t="n">
-        <v>1847.636805274072</v>
+        <v>1959.443724280376</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>53.99908040164613</v>
       </c>
       <c r="J15" t="n">
-        <v>140.1765764905521</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="K15" t="n">
-        <v>413.97426245197</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="L15" t="n">
-        <v>839.3725163199115</v>
+        <v>394.3375784272677</v>
       </c>
       <c r="M15" t="n">
-        <v>1393.928728742842</v>
+        <v>948.8937908501979</v>
       </c>
       <c r="N15" t="n">
-        <v>1724.318972184909</v>
+        <v>1531.52235908972</v>
       </c>
       <c r="O15" t="n">
-        <v>2181.802054827074</v>
+        <v>1989.005441731884</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.293442881398</v>
+        <v>2343.496829786209</v>
       </c>
       <c r="Q15" t="n">
         <v>2536.293442881398</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>354.9106008199091</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="C16" t="n">
-        <v>354.9106008199091</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="D16" t="n">
-        <v>284.0041562983993</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="E16" t="n">
-        <v>214.1605907104455</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="F16" t="n">
-        <v>195.498030854263</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="G16" t="n">
-        <v>108.9784365429088</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="H16" t="n">
-        <v>108.9784365429088</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="I16" t="n">
         <v>53.99908040164613</v>
       </c>
       <c r="J16" t="n">
-        <v>91.93081351170511</v>
+        <v>91.93081351170514</v>
       </c>
       <c r="K16" t="n">
         <v>232.7912451884874</v>
@@ -5458,28 +5458,28 @@
         <v>1361.716988726512</v>
       </c>
       <c r="R16" t="n">
-        <v>1304.913876393059</v>
+        <v>1309.383228840322</v>
       </c>
       <c r="S16" t="n">
-        <v>1177.459842170394</v>
+        <v>1181.929194617657</v>
       </c>
       <c r="T16" t="n">
-        <v>1027.449170954366</v>
+        <v>1031.918523401629</v>
       </c>
       <c r="U16" t="n">
-        <v>822.4371822216514</v>
+        <v>826.9065346689142</v>
       </c>
       <c r="V16" t="n">
-        <v>643.8673264308014</v>
+        <v>648.3366788780642</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8673264308014</v>
+        <v>444.3457260461909</v>
       </c>
       <c r="X16" t="n">
-        <v>494.7803109769046</v>
+        <v>295.2587105922941</v>
       </c>
       <c r="Y16" t="n">
-        <v>354.9106008199091</v>
+        <v>155.3890004352985</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1199.471046747666</v>
       </c>
       <c r="D17" t="n">
-        <v>982.5135505619676</v>
+        <v>982.5135505619673</v>
       </c>
       <c r="E17" t="n">
-        <v>743.5942992551522</v>
+        <v>743.594299255152</v>
       </c>
       <c r="F17" t="n">
-        <v>485.3095771524004</v>
+        <v>485.3095771524002</v>
       </c>
       <c r="G17" t="n">
         <v>225.5952952237861</v>
@@ -5516,13 +5516,13 @@
         <v>169.5228895060748</v>
       </c>
       <c r="K17" t="n">
-        <v>474.8963507725023</v>
+        <v>474.8963507725024</v>
       </c>
       <c r="L17" t="n">
-        <v>903.7091393412271</v>
+        <v>903.7091393412272</v>
       </c>
       <c r="M17" t="n">
-        <v>1386.995648363613</v>
+        <v>1386.995648363614</v>
       </c>
       <c r="N17" t="n">
         <v>1856.831409968233</v>
@@ -5540,19 +5540,19 @@
         <v>2699.954020082307</v>
       </c>
       <c r="S17" t="n">
-        <v>2680.514754336113</v>
+        <v>2680.514754336112</v>
       </c>
       <c r="T17" t="n">
-        <v>2614.312742376055</v>
+        <v>2614.312742376054</v>
       </c>
       <c r="U17" t="n">
-        <v>2515.335733559537</v>
+        <v>2515.335733559536</v>
       </c>
       <c r="V17" t="n">
-        <v>2334.222928042557</v>
+        <v>2334.222928042555</v>
       </c>
       <c r="W17" t="n">
-        <v>2127.554466487235</v>
+        <v>2127.554466487234</v>
       </c>
       <c r="X17" t="n">
         <v>1901.390794595806</v>
@@ -5595,22 +5595,22 @@
         <v>140.1765764905521</v>
       </c>
       <c r="K18" t="n">
-        <v>413.97426245197</v>
+        <v>140.1765764905521</v>
       </c>
       <c r="L18" t="n">
-        <v>839.3725163199115</v>
+        <v>565.5748303584936</v>
       </c>
       <c r="M18" t="n">
-        <v>1393.928728742842</v>
+        <v>948.8937908501979</v>
       </c>
       <c r="N18" t="n">
-        <v>1724.318972184909</v>
+        <v>1531.52235908972</v>
       </c>
       <c r="O18" t="n">
-        <v>2181.802054827074</v>
+        <v>1989.005441731884</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.293442881398</v>
+        <v>2343.496829786209</v>
       </c>
       <c r="Q18" t="n">
         <v>2536.293442881398</v>
@@ -5686,37 +5686,37 @@
         <v>556.8126869825422</v>
       </c>
       <c r="O19" t="n">
-        <v>687.7907389640109</v>
+        <v>687.7907389640108</v>
       </c>
       <c r="P19" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="Q19" t="n">
-        <v>778.580913622352</v>
+        <v>759.6969716124095</v>
       </c>
       <c r="R19" t="n">
-        <v>778.580913622352</v>
+        <v>759.6969716124095</v>
       </c>
       <c r="S19" t="n">
-        <v>694.0095602473984</v>
+        <v>705.9439573260952</v>
       </c>
       <c r="T19" t="n">
-        <v>617.6999089677204</v>
+        <v>629.6343060464171</v>
       </c>
       <c r="U19" t="n">
-        <v>486.3889401713564</v>
+        <v>498.3233372500532</v>
       </c>
       <c r="V19" t="n">
-        <v>381.5201043168568</v>
+        <v>393.4545013955536</v>
       </c>
       <c r="W19" t="n">
-        <v>251.2301714213338</v>
+        <v>263.1645685000306</v>
       </c>
       <c r="X19" t="n">
-        <v>175.8441759037874</v>
+        <v>187.7785729824842</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.6754856831424</v>
+        <v>121.6098827618391</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1199.471046747665</v>
       </c>
       <c r="D20" t="n">
-        <v>982.5135505619667</v>
+        <v>982.5135505619664</v>
       </c>
       <c r="E20" t="n">
-        <v>743.5942992551513</v>
+        <v>743.5942992551511</v>
       </c>
       <c r="F20" t="n">
-        <v>485.3095771523995</v>
+        <v>485.3095771523993</v>
       </c>
       <c r="G20" t="n">
         <v>225.5952952237861</v>
@@ -5750,13 +5750,13 @@
         <v>53.99908040164613</v>
       </c>
       <c r="J20" t="n">
-        <v>169.5228895060747</v>
+        <v>169.5228895060748</v>
       </c>
       <c r="K20" t="n">
-        <v>474.8963507725022</v>
+        <v>474.8963507725023</v>
       </c>
       <c r="L20" t="n">
-        <v>903.709139341227</v>
+        <v>903.7091393412271</v>
       </c>
       <c r="M20" t="n">
         <v>1386.995648363613</v>
@@ -5829,25 +5829,25 @@
         <v>53.99908040164613</v>
       </c>
       <c r="J21" t="n">
-        <v>53.99908040164613</v>
+        <v>140.1765764905521</v>
       </c>
       <c r="K21" t="n">
-        <v>161.7359376545157</v>
+        <v>413.97426245197</v>
       </c>
       <c r="L21" t="n">
-        <v>587.1341915224573</v>
+        <v>839.3725163199115</v>
       </c>
       <c r="M21" t="n">
-        <v>1141.690403945388</v>
+        <v>1393.928728742842</v>
       </c>
       <c r="N21" t="n">
-        <v>1724.318972184909</v>
+        <v>1531.52235908972</v>
       </c>
       <c r="O21" t="n">
-        <v>2181.802054827074</v>
+        <v>1989.005441731884</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.293442881398</v>
+        <v>2343.496829786209</v>
       </c>
       <c r="Q21" t="n">
         <v>2536.293442881398</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.98658558584042</v>
+        <v>112.8049246744797</v>
       </c>
       <c r="C22" t="n">
-        <v>68.23708463459857</v>
+        <v>99.05542372323784</v>
       </c>
       <c r="D22" t="n">
-        <v>68.23708463459857</v>
+        <v>99.05542372323784</v>
       </c>
       <c r="E22" t="n">
-        <v>68.23708463459857</v>
+        <v>99.05542372323784</v>
       </c>
       <c r="F22" t="n">
-        <v>68.23708463459857</v>
+        <v>99.05542372323784</v>
       </c>
       <c r="G22" t="n">
-        <v>55.4185102595949</v>
+        <v>86.23684934823416</v>
       </c>
       <c r="H22" t="n">
-        <v>53.99908040164613</v>
+        <v>84.81741949028539</v>
       </c>
       <c r="I22" t="n">
-        <v>53.99908040164613</v>
+        <v>84.81741949028539</v>
       </c>
       <c r="J22" t="n">
         <v>53.99908040164613</v>
@@ -5923,37 +5923,37 @@
         <v>556.8126869825422</v>
       </c>
       <c r="O22" t="n">
-        <v>687.7907389640109</v>
+        <v>687.7907389640108</v>
       </c>
       <c r="P22" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="Q22" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="R22" t="n">
-        <v>747.7625745337127</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="S22" t="n">
-        <v>694.0095602473984</v>
+        <v>724.8278993360376</v>
       </c>
       <c r="T22" t="n">
-        <v>617.6999089677204</v>
+        <v>648.5182480563595</v>
       </c>
       <c r="U22" t="n">
-        <v>486.3889401713564</v>
+        <v>517.2072792599956</v>
       </c>
       <c r="V22" t="n">
-        <v>381.5201043168568</v>
+        <v>412.3384434054961</v>
       </c>
       <c r="W22" t="n">
-        <v>251.2301714213338</v>
+        <v>282.0485105099731</v>
       </c>
       <c r="X22" t="n">
-        <v>175.8441759037874</v>
+        <v>206.6625149924267</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.6754856831424</v>
+        <v>140.4938247717816</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1199.471046747665</v>
       </c>
       <c r="D23" t="n">
-        <v>982.5135505619664</v>
+        <v>982.5135505619667</v>
       </c>
       <c r="E23" t="n">
         <v>743.5942992551513</v>
@@ -5996,7 +5996,7 @@
         <v>903.7091393412272</v>
       </c>
       <c r="M23" t="n">
-        <v>1386.995648363613</v>
+        <v>1386.995648363614</v>
       </c>
       <c r="N23" t="n">
         <v>1856.831409968233</v>
@@ -6023,13 +6023,13 @@
         <v>2515.335733559536</v>
       </c>
       <c r="V23" t="n">
-        <v>2334.222928042555</v>
+        <v>2334.222928042556</v>
       </c>
       <c r="W23" t="n">
-        <v>2127.554466487234</v>
+        <v>2127.554466487235</v>
       </c>
       <c r="X23" t="n">
-        <v>1901.390794595805</v>
+        <v>1901.390794595806</v>
       </c>
       <c r="Y23" t="n">
         <v>1663.715407758721</v>
@@ -6066,25 +6066,25 @@
         <v>53.99908040164613</v>
       </c>
       <c r="J24" t="n">
-        <v>53.99908040164613</v>
+        <v>140.1765764905521</v>
       </c>
       <c r="K24" t="n">
-        <v>327.7967663630641</v>
+        <v>413.97426245197</v>
       </c>
       <c r="L24" t="n">
-        <v>587.1341915224573</v>
+        <v>839.3725163199115</v>
       </c>
       <c r="M24" t="n">
-        <v>1141.690403945388</v>
+        <v>1393.928728742842</v>
       </c>
       <c r="N24" t="n">
-        <v>1724.318972184909</v>
+        <v>1531.52235908972</v>
       </c>
       <c r="O24" t="n">
-        <v>2181.802054827074</v>
+        <v>1989.005441731884</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.293442881398</v>
+        <v>2343.496829786209</v>
       </c>
       <c r="Q24" t="n">
         <v>2536.293442881398</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.8049246744797</v>
+        <v>81.98658558584042</v>
       </c>
       <c r="C25" t="n">
         <v>68.23708463459857</v>
@@ -6160,37 +6160,37 @@
         <v>556.8126869825422</v>
       </c>
       <c r="O25" t="n">
-        <v>687.7907389640109</v>
+        <v>687.7907389640108</v>
       </c>
       <c r="P25" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="Q25" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="R25" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="S25" t="n">
-        <v>724.8278993360377</v>
+        <v>724.8278993360376</v>
       </c>
       <c r="T25" t="n">
-        <v>648.5182480563597</v>
+        <v>617.6999089677204</v>
       </c>
       <c r="U25" t="n">
-        <v>517.2072792599956</v>
+        <v>486.3889401713564</v>
       </c>
       <c r="V25" t="n">
-        <v>412.3384434054961</v>
+        <v>381.5201043168568</v>
       </c>
       <c r="W25" t="n">
-        <v>282.0485105099731</v>
+        <v>251.2301714213338</v>
       </c>
       <c r="X25" t="n">
-        <v>206.6625149924267</v>
+        <v>175.8441759037874</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.4938247717816</v>
+        <v>109.6754856831424</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>69.82301075715476</v>
       </c>
       <c r="J26" t="n">
-        <v>202.2091383082656</v>
+        <v>287.2382193655713</v>
       </c>
       <c r="K26" t="n">
-        <v>609.4739990786809</v>
+        <v>694.5030801359866</v>
       </c>
       <c r="L26" t="n">
-        <v>1140.178187151394</v>
+        <v>1225.207268208699</v>
       </c>
       <c r="M26" t="n">
-        <v>1725.356095677768</v>
+        <v>1810.385176735073</v>
       </c>
       <c r="N26" t="n">
-        <v>2297.083256786375</v>
+        <v>2382.112337843681</v>
       </c>
       <c r="O26" t="n">
         <v>2790.384253678252</v>
@@ -6306,13 +6306,13 @@
         <v>69.82301075715476</v>
       </c>
       <c r="K27" t="n">
-        <v>69.82301075715476</v>
+        <v>343.6206967185727</v>
       </c>
       <c r="L27" t="n">
-        <v>410.161508782776</v>
+        <v>769.0189505865142</v>
       </c>
       <c r="M27" t="n">
-        <v>964.7177212057062</v>
+        <v>1323.575163009444</v>
       </c>
       <c r="N27" t="n">
         <v>1547.346289445228</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.3948354281125</v>
+        <v>432.3948354281122</v>
       </c>
       <c r="C28" t="n">
-        <v>366.7390735257359</v>
+        <v>366.7390735257355</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6273879894417</v>
+        <v>317.6273879894414</v>
       </c>
       <c r="E28" t="n">
-        <v>269.5785813867037</v>
+        <v>269.5785813867033</v>
       </c>
       <c r="F28" t="n">
-        <v>221.0581340484239</v>
+        <v>221.0581340484235</v>
       </c>
       <c r="G28" t="n">
-        <v>156.3332987222855</v>
+        <v>156.3332987222851</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0076079132022</v>
+        <v>103.0076079132018</v>
       </c>
       <c r="I28" t="n">
         <v>69.82301075715476</v>
       </c>
       <c r="J28" t="n">
-        <v>129.1157871486238</v>
+        <v>129.1157871486233</v>
       </c>
       <c r="K28" t="n">
-        <v>291.337262106816</v>
+        <v>291.3372621068156</v>
       </c>
       <c r="L28" t="n">
-        <v>528.035675878212</v>
+        <v>528.0356758782117</v>
       </c>
       <c r="M28" t="n">
-        <v>783.9796176425057</v>
+        <v>783.9796176425056</v>
       </c>
       <c r="N28" t="n">
         <v>1039.494991745471</v>
@@ -6400,7 +6400,7 @@
         <v>1272.364443230927</v>
       </c>
       <c r="P28" t="n">
-        <v>1465.046017393257</v>
+        <v>1465.046017393256</v>
       </c>
       <c r="Q28" t="n">
         <v>1548.4292653333</v>
@@ -6409,25 +6409,25 @@
         <v>1513.420911985063</v>
       </c>
       <c r="S28" t="n">
-        <v>1407.761636747614</v>
+        <v>1407.761636747613</v>
       </c>
       <c r="T28" t="n">
-        <v>1279.545724516801</v>
+        <v>1279.5457245168</v>
       </c>
       <c r="U28" t="n">
         <v>1096.328494769302</v>
       </c>
       <c r="V28" t="n">
-        <v>939.553397963668</v>
+        <v>939.5533979636675</v>
       </c>
       <c r="W28" t="n">
-        <v>757.3572041170103</v>
+        <v>757.3572041170097</v>
       </c>
       <c r="X28" t="n">
-        <v>630.0649476483291</v>
+        <v>630.0649476483286</v>
       </c>
       <c r="Y28" t="n">
-        <v>511.9899964765492</v>
+        <v>511.9899964765489</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1801.484766994133</v>
+        <v>1801.484766994132</v>
       </c>
       <c r="C29" t="n">
         <v>1523.511215962883</v>
       </c>
       <c r="D29" t="n">
-        <v>1254.64745882605</v>
+        <v>1254.647458826049</v>
       </c>
       <c r="E29" t="n">
-        <v>963.8219465680997</v>
+        <v>963.8219465680995</v>
       </c>
       <c r="F29" t="n">
-        <v>653.6309635142131</v>
+        <v>653.6309635142129</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0104206344654</v>
+        <v>342.0104206344647</v>
       </c>
       <c r="H29" t="n">
         <v>118.50794486119</v>
       </c>
       <c r="I29" t="n">
-        <v>69.82301075715476</v>
+        <v>69.82301075715475</v>
       </c>
       <c r="J29" t="n">
         <v>287.2382193655713</v>
       </c>
       <c r="K29" t="n">
-        <v>694.5030801359867</v>
+        <v>694.5030801359866</v>
       </c>
       <c r="L29" t="n">
         <v>1225.207268208699</v>
@@ -6479,34 +6479,34 @@
         <v>2790.384253678252</v>
       </c>
       <c r="P29" t="n">
-        <v>3194.177229110668</v>
+        <v>3194.177229110667</v>
       </c>
       <c r="Q29" t="n">
-        <v>3445.880065412413</v>
+        <v>3445.880065412412</v>
       </c>
       <c r="R29" t="n">
         <v>3491.150537857738</v>
       </c>
       <c r="S29" t="n">
-        <v>3419.805011160409</v>
+        <v>3419.805011160408</v>
       </c>
       <c r="T29" t="n">
         <v>3301.696738249216</v>
       </c>
       <c r="U29" t="n">
-        <v>3150.813468481563</v>
+        <v>3150.813468481562</v>
       </c>
       <c r="V29" t="n">
-        <v>2917.794402013447</v>
+        <v>2917.794402013446</v>
       </c>
       <c r="W29" t="n">
         <v>2659.219679506991</v>
       </c>
       <c r="X29" t="n">
-        <v>2381.149746664428</v>
+        <v>2381.149746664427</v>
       </c>
       <c r="Y29" t="n">
-        <v>2091.568098876209</v>
+        <v>2091.568098876208</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>936.513195651435</v>
+        <v>936.5131956514348</v>
       </c>
       <c r="C30" t="n">
-        <v>774.8095228923897</v>
+        <v>774.8095228923895</v>
       </c>
       <c r="D30" t="n">
-        <v>635.9708858826018</v>
+        <v>635.9708858826016</v>
       </c>
       <c r="E30" t="n">
-        <v>488.942875939473</v>
+        <v>488.9428759394729</v>
       </c>
       <c r="F30" t="n">
-        <v>354.2490778893473</v>
+        <v>354.2490778893472</v>
       </c>
       <c r="G30" t="n">
         <v>225.8005338696912</v>
       </c>
       <c r="H30" t="n">
-        <v>128.5664615806204</v>
+        <v>128.5664615806203</v>
       </c>
       <c r="I30" t="n">
-        <v>69.82301075715476</v>
+        <v>69.82301075715475</v>
       </c>
       <c r="J30" t="n">
-        <v>156.0005068460607</v>
+        <v>69.82301075715475</v>
       </c>
       <c r="K30" t="n">
-        <v>429.7981928074786</v>
+        <v>343.6206967185727</v>
       </c>
       <c r="L30" t="n">
-        <v>855.1964466754202</v>
+        <v>769.0189505865142</v>
       </c>
       <c r="M30" t="n">
-        <v>1409.75265909835</v>
+        <v>1323.575163009444</v>
       </c>
       <c r="N30" t="n">
         <v>1547.346289445228</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.3948354281123</v>
+        <v>432.3948354281125</v>
       </c>
       <c r="C31" t="n">
-        <v>366.7390735257358</v>
+        <v>366.7390735257359</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6273879894416</v>
+        <v>317.6273879894418</v>
       </c>
       <c r="E31" t="n">
-        <v>269.5785813867035</v>
+        <v>269.5785813867038</v>
       </c>
       <c r="F31" t="n">
-        <v>221.0581340484238</v>
+        <v>221.058134048424</v>
       </c>
       <c r="G31" t="n">
-        <v>156.3332987222853</v>
+        <v>156.3332987222856</v>
       </c>
       <c r="H31" t="n">
         <v>103.0076079132018</v>
       </c>
       <c r="I31" t="n">
-        <v>69.82301075715476</v>
+        <v>69.82301075715475</v>
       </c>
       <c r="J31" t="n">
-        <v>129.1157871486237</v>
+        <v>129.1157871486235</v>
       </c>
       <c r="K31" t="n">
-        <v>291.3372621068159</v>
+        <v>291.3372621068157</v>
       </c>
       <c r="L31" t="n">
-        <v>528.0356758782117</v>
+        <v>528.0356758782118</v>
       </c>
       <c r="M31" t="n">
-        <v>783.9796176425056</v>
+        <v>783.9796176425057</v>
       </c>
       <c r="N31" t="n">
         <v>1039.494991745471</v>
@@ -6637,16 +6637,16 @@
         <v>1272.364443230927</v>
       </c>
       <c r="P31" t="n">
-        <v>1465.046017393256</v>
+        <v>1465.046017393257</v>
       </c>
       <c r="Q31" t="n">
-        <v>1548.429265333299</v>
+        <v>1548.4292653333</v>
       </c>
       <c r="R31" t="n">
-        <v>1513.420911985062</v>
+        <v>1513.420911985063</v>
       </c>
       <c r="S31" t="n">
-        <v>1407.761636747613</v>
+        <v>1407.761636747614</v>
       </c>
       <c r="T31" t="n">
         <v>1279.545724516801</v>
@@ -6655,16 +6655,16 @@
         <v>1096.328494769302</v>
       </c>
       <c r="V31" t="n">
-        <v>939.5533979636675</v>
+        <v>939.5533979636681</v>
       </c>
       <c r="W31" t="n">
-        <v>757.3572041170098</v>
+        <v>757.3572041170104</v>
       </c>
       <c r="X31" t="n">
-        <v>630.0649476483287</v>
+        <v>630.0649476483293</v>
       </c>
       <c r="Y31" t="n">
-        <v>511.989996476549</v>
+        <v>511.9899964765492</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1778.681700799109</v>
+        <v>1778.68170079911</v>
       </c>
       <c r="C32" t="n">
-        <v>1503.829239833659</v>
+        <v>1503.82923983366</v>
       </c>
       <c r="D32" t="n">
         <v>1238.086572762625</v>
       </c>
       <c r="E32" t="n">
-        <v>950.3821505704736</v>
+        <v>950.382150570474</v>
       </c>
       <c r="F32" t="n">
         <v>643.3122575823865</v>
@@ -6692,19 +6692,19 @@
         <v>334.8128047684372</v>
       </c>
       <c r="H32" t="n">
-        <v>114.4314190609626</v>
+        <v>114.4314190609627</v>
       </c>
       <c r="I32" t="n">
-        <v>68.86757502272646</v>
+        <v>68.86757502272644</v>
       </c>
       <c r="J32" t="n">
-        <v>184.3913841271552</v>
+        <v>289.3417640046326</v>
       </c>
       <c r="K32" t="n">
-        <v>540.2893497428382</v>
+        <v>699.6656051485376</v>
       </c>
       <c r="L32" t="n">
-        <v>1074.05251818904</v>
+        <v>1128.478393717262</v>
       </c>
       <c r="M32" t="n">
         <v>1662.289407088904</v>
@@ -6713,37 +6713,37 @@
         <v>2237.075548571001</v>
       </c>
       <c r="O32" t="n">
-        <v>2733.435525836368</v>
+        <v>2733.435525836367</v>
       </c>
       <c r="P32" t="n">
-        <v>3140.287481642273</v>
+        <v>3140.287481642272</v>
       </c>
       <c r="Q32" t="n">
-        <v>3395.049298317508</v>
+        <v>3395.049298317507</v>
       </c>
       <c r="R32" t="n">
-        <v>3443.378751136323</v>
+        <v>3443.378751136322</v>
       </c>
       <c r="S32" t="n">
-        <v>3375.154314504793</v>
+        <v>3375.154314504792</v>
       </c>
       <c r="T32" t="n">
-        <v>3260.167131659399</v>
+        <v>3260.167131659398</v>
       </c>
       <c r="U32" t="n">
-        <v>3112.404951957544</v>
+        <v>3112.404951957545</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.506975555228</v>
+        <v>2882.506975555229</v>
       </c>
       <c r="W32" t="n">
-        <v>2627.05334311457</v>
+        <v>2627.053343114572</v>
       </c>
       <c r="X32" t="n">
-        <v>2352.104500337806</v>
+        <v>2352.104500337807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2065.643942615386</v>
+        <v>2065.643942615387</v>
       </c>
     </row>
     <row r="33">
@@ -6762,19 +6762,19 @@
         <v>635.0154501481734</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9874402050447</v>
+        <v>487.9874402050445</v>
       </c>
       <c r="F33" t="n">
-        <v>353.293642154919</v>
+        <v>353.2936421549189</v>
       </c>
       <c r="G33" t="n">
-        <v>224.8450981352629</v>
+        <v>224.8450981352628</v>
       </c>
       <c r="H33" t="n">
-        <v>127.6110258461921</v>
+        <v>127.611025846192</v>
       </c>
       <c r="I33" t="n">
-        <v>68.86757502272646</v>
+        <v>68.86757502272644</v>
       </c>
       <c r="J33" t="n">
         <v>155.0450711116324</v>
@@ -6786,10 +6786,10 @@
         <v>854.2410109409918</v>
       </c>
       <c r="M33" t="n">
-        <v>1408.797223363922</v>
+        <v>963.7622854712785</v>
       </c>
       <c r="N33" t="n">
-        <v>1991.425791603444</v>
+        <v>1546.3908537108</v>
       </c>
       <c r="O33" t="n">
         <v>2003.873936352965</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>409.5917692330905</v>
+        <v>409.5917692330908</v>
       </c>
       <c r="C34" t="n">
-        <v>347.057097396513</v>
+        <v>347.0570973965132</v>
       </c>
       <c r="D34" t="n">
-        <v>301.0665019260179</v>
+        <v>301.0665019260181</v>
       </c>
       <c r="E34" t="n">
-        <v>256.1387853890789</v>
+        <v>256.138785389079</v>
       </c>
       <c r="F34" t="n">
-        <v>210.7394281165982</v>
+        <v>210.7394281165983</v>
       </c>
       <c r="G34" t="n">
         <v>149.1356828562589</v>
       </c>
       <c r="H34" t="n">
-        <v>98.93108211297439</v>
+        <v>98.93108211297441</v>
       </c>
       <c r="I34" t="n">
-        <v>68.86757502272646</v>
+        <v>68.86757502272644</v>
       </c>
       <c r="J34" t="n">
         <v>131.219331787685</v>
       </c>
       <c r="K34" t="n">
-        <v>222.0905030786644</v>
+        <v>296.4997871193668</v>
       </c>
       <c r="L34" t="n">
-        <v>461.8478972235501</v>
+        <v>536.2571812642525</v>
       </c>
       <c r="M34" t="n">
-        <v>720.8508193613335</v>
+        <v>795.2601034020358</v>
       </c>
       <c r="N34" t="n">
-        <v>979.4251738377885</v>
+        <v>979.425173837789</v>
       </c>
       <c r="O34" t="n">
         <v>1215.353605696735</v>
       </c>
       <c r="P34" t="n">
-        <v>1411.094160232553</v>
+        <v>1411.094160232554</v>
       </c>
       <c r="Q34" t="n">
-        <v>1497.536388546086</v>
+        <v>1497.536388546087</v>
       </c>
       <c r="R34" t="n">
-        <v>1465.649125263648</v>
+        <v>1465.649125263649</v>
       </c>
       <c r="S34" t="n">
-        <v>1363.110940091998</v>
+        <v>1363.110940091999</v>
       </c>
       <c r="T34" t="n">
         <v>1238.016117926985</v>
@@ -6892,16 +6892,16 @@
         <v>1057.919978245285</v>
       </c>
       <c r="V34" t="n">
-        <v>904.2659715054497</v>
+        <v>904.26597150545</v>
       </c>
       <c r="W34" t="n">
-        <v>725.1908677245909</v>
+        <v>725.1908677245913</v>
       </c>
       <c r="X34" t="n">
-        <v>601.0197013217089</v>
+        <v>601.0197013217091</v>
       </c>
       <c r="Y34" t="n">
-        <v>486.0658402157282</v>
+        <v>486.0658402157284</v>
       </c>
     </row>
     <row r="35">
@@ -6935,13 +6935,13 @@
         <v>53.99908040164613</v>
       </c>
       <c r="J35" t="n">
-        <v>169.5228895060748</v>
+        <v>169.5228895060745</v>
       </c>
       <c r="K35" t="n">
-        <v>474.8963507725023</v>
+        <v>474.8963507725018</v>
       </c>
       <c r="L35" t="n">
-        <v>903.7091393412271</v>
+        <v>903.7091393412267</v>
       </c>
       <c r="M35" t="n">
         <v>1386.995648363613</v>
@@ -6950,7 +6950,7 @@
         <v>1856.831409968233</v>
       </c>
       <c r="O35" t="n">
-        <v>2248.241007356122</v>
+        <v>2248.241007356121</v>
       </c>
       <c r="P35" t="n">
         <v>2550.142583284549</v>
@@ -7014,25 +7014,25 @@
         <v>53.99908040164613</v>
       </c>
       <c r="J36" t="n">
-        <v>53.99908040164613</v>
+        <v>140.1765764905521</v>
       </c>
       <c r="K36" t="n">
-        <v>327.7967663630641</v>
+        <v>413.97426245197</v>
       </c>
       <c r="L36" t="n">
-        <v>587.1341915224573</v>
+        <v>839.3725163199115</v>
       </c>
       <c r="M36" t="n">
-        <v>1141.690403945388</v>
+        <v>948.8937908501979</v>
       </c>
       <c r="N36" t="n">
-        <v>1724.318972184909</v>
+        <v>1531.52235908972</v>
       </c>
       <c r="O36" t="n">
-        <v>2181.802054827074</v>
+        <v>1989.005441731884</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.293442881398</v>
+        <v>2343.496829786209</v>
       </c>
       <c r="Q36" t="n">
         <v>2536.293442881398</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>112.8049246744797</v>
+        <v>81.98658558584042</v>
       </c>
       <c r="C37" t="n">
-        <v>99.05542372323784</v>
+        <v>68.23708463459857</v>
       </c>
       <c r="D37" t="n">
-        <v>99.05542372323784</v>
+        <v>68.23708463459857</v>
       </c>
       <c r="E37" t="n">
-        <v>99.05542372323784</v>
+        <v>68.23708463459857</v>
       </c>
       <c r="F37" t="n">
         <v>68.23708463459857</v>
@@ -7108,37 +7108,37 @@
         <v>556.8126869825422</v>
       </c>
       <c r="O37" t="n">
-        <v>687.7907389640109</v>
+        <v>687.7907389640108</v>
       </c>
       <c r="P37" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="Q37" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="R37" t="n">
-        <v>778.580913622352</v>
+        <v>747.7625745337127</v>
       </c>
       <c r="S37" t="n">
-        <v>724.8278993360377</v>
+        <v>694.0095602473984</v>
       </c>
       <c r="T37" t="n">
-        <v>648.5182480563597</v>
+        <v>617.6999089677204</v>
       </c>
       <c r="U37" t="n">
-        <v>517.2072792599956</v>
+        <v>486.3889401713564</v>
       </c>
       <c r="V37" t="n">
-        <v>412.3384434054961</v>
+        <v>381.5201043168568</v>
       </c>
       <c r="W37" t="n">
-        <v>282.0485105099731</v>
+        <v>251.2301714213338</v>
       </c>
       <c r="X37" t="n">
-        <v>206.6625149924267</v>
+        <v>175.8441759037874</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.4938247717816</v>
+        <v>109.6754856831424</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1425.538336827779</v>
+        <v>1425.53833682778</v>
       </c>
       <c r="C38" t="n">
         <v>1199.471046747665</v>
       </c>
       <c r="D38" t="n">
-        <v>982.5135505619662</v>
+        <v>982.5135505619664</v>
       </c>
       <c r="E38" t="n">
-        <v>743.5942992551509</v>
+        <v>743.5942992551511</v>
       </c>
       <c r="F38" t="n">
-        <v>485.309577152399</v>
+        <v>485.3095771523994</v>
       </c>
       <c r="G38" t="n">
-        <v>225.5952952237862</v>
+        <v>225.5952952237861</v>
       </c>
       <c r="H38" t="n">
         <v>53.99908040164613</v>
@@ -7178,7 +7178,7 @@
         <v>474.8963507725024</v>
       </c>
       <c r="L38" t="n">
-        <v>903.7091393412272</v>
+        <v>903.7091393412271</v>
       </c>
       <c r="M38" t="n">
         <v>1386.995648363613</v>
@@ -7208,16 +7208,16 @@
         <v>2515.335733559536</v>
       </c>
       <c r="V38" t="n">
-        <v>2334.222928042554</v>
+        <v>2334.222928042555</v>
       </c>
       <c r="W38" t="n">
-        <v>2127.554466487233</v>
+        <v>2127.554466487234</v>
       </c>
       <c r="X38" t="n">
-        <v>1901.390794595804</v>
+        <v>1901.390794595805</v>
       </c>
       <c r="Y38" t="n">
-        <v>1663.71540775872</v>
+        <v>1663.715407758721</v>
       </c>
     </row>
     <row r="39">
@@ -7254,10 +7254,10 @@
         <v>53.99908040164613</v>
       </c>
       <c r="K39" t="n">
-        <v>161.7359376545157</v>
+        <v>327.7967663630641</v>
       </c>
       <c r="L39" t="n">
-        <v>587.1341915224573</v>
+        <v>753.1950202310056</v>
       </c>
       <c r="M39" t="n">
         <v>1141.690403945388</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>112.8049246744792</v>
+        <v>81.98658558584042</v>
       </c>
       <c r="C40" t="n">
-        <v>99.05542372323727</v>
+        <v>68.23708463459857</v>
       </c>
       <c r="D40" t="n">
-        <v>68.23708463459869</v>
+        <v>68.23708463459857</v>
       </c>
       <c r="E40" t="n">
-        <v>68.23708463459869</v>
+        <v>68.23708463459857</v>
       </c>
       <c r="F40" t="n">
-        <v>68.23708463459869</v>
+        <v>68.23708463459857</v>
       </c>
       <c r="G40" t="n">
-        <v>55.41851025959496</v>
+        <v>55.4185102595949</v>
       </c>
       <c r="H40" t="n">
         <v>53.99908040164613</v>
@@ -7345,37 +7345,37 @@
         <v>556.8126869825422</v>
       </c>
       <c r="O40" t="n">
-        <v>687.7907389640109</v>
+        <v>687.7907389640108</v>
       </c>
       <c r="P40" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="Q40" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="R40" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="S40" t="n">
         <v>724.8278993360376</v>
       </c>
       <c r="T40" t="n">
-        <v>648.5182480563594</v>
+        <v>648.5182480563595</v>
       </c>
       <c r="U40" t="n">
-        <v>517.2072792599954</v>
+        <v>517.2072792599956</v>
       </c>
       <c r="V40" t="n">
-        <v>412.3384434054958</v>
+        <v>412.3384434054961</v>
       </c>
       <c r="W40" t="n">
-        <v>282.0485105099727</v>
+        <v>282.0485105099731</v>
       </c>
       <c r="X40" t="n">
-        <v>206.6625149924263</v>
+        <v>206.6625149924267</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.4938247717812</v>
+        <v>140.4938247717816</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1425.53833682778</v>
+        <v>1425.538336827781</v>
       </c>
       <c r="C41" t="n">
-        <v>1199.471046747665</v>
+        <v>1199.471046747666</v>
       </c>
       <c r="D41" t="n">
-        <v>982.513550561967</v>
+        <v>982.5135505619675</v>
       </c>
       <c r="E41" t="n">
-        <v>743.5942992551518</v>
+        <v>743.5942992551522</v>
       </c>
       <c r="F41" t="n">
-        <v>485.3095771524001</v>
+        <v>485.3095771524005</v>
       </c>
       <c r="G41" t="n">
         <v>225.595295223786</v>
@@ -7409,13 +7409,13 @@
         <v>53.99908040164613</v>
       </c>
       <c r="J41" t="n">
-        <v>169.5228895060745</v>
+        <v>169.5228895060748</v>
       </c>
       <c r="K41" t="n">
-        <v>474.896350772502</v>
+        <v>474.8963507725024</v>
       </c>
       <c r="L41" t="n">
-        <v>903.7091393412268</v>
+        <v>903.7091393412272</v>
       </c>
       <c r="M41" t="n">
         <v>1386.995648363613</v>
@@ -7433,7 +7433,7 @@
         <v>2699.954020082306</v>
       </c>
       <c r="R41" t="n">
-        <v>2699.954020082306</v>
+        <v>2699.954020082307</v>
       </c>
       <c r="S41" t="n">
         <v>2680.514754336113</v>
@@ -7448,13 +7448,13 @@
         <v>2334.222928042555</v>
       </c>
       <c r="W41" t="n">
-        <v>2127.554466487234</v>
+        <v>2127.554466487235</v>
       </c>
       <c r="X41" t="n">
-        <v>1901.390794595805</v>
+        <v>1901.390794595806</v>
       </c>
       <c r="Y41" t="n">
-        <v>1663.715407758721</v>
+        <v>1663.715407758722</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>53.99908040164613</v>
       </c>
       <c r="J42" t="n">
-        <v>140.1765764905521</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="K42" t="n">
-        <v>413.97426245197</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="L42" t="n">
-        <v>839.3725163199115</v>
+        <v>479.3973342695877</v>
       </c>
       <c r="M42" t="n">
-        <v>1393.928728742842</v>
+        <v>1033.953546692518</v>
       </c>
       <c r="N42" t="n">
-        <v>1976.557296982364</v>
+        <v>1616.58211493204</v>
       </c>
       <c r="O42" t="n">
-        <v>1989.005441731884</v>
+        <v>2074.065197574204</v>
       </c>
       <c r="P42" t="n">
         <v>2343.496829786209</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.98658558584016</v>
+        <v>112.8049246744802</v>
       </c>
       <c r="C43" t="n">
-        <v>68.2370846345984</v>
+        <v>99.05542372323841</v>
       </c>
       <c r="D43" t="n">
-        <v>68.2370846345984</v>
+        <v>99.05542372323841</v>
       </c>
       <c r="E43" t="n">
-        <v>68.2370846345984</v>
+        <v>99.05542372323841</v>
       </c>
       <c r="F43" t="n">
-        <v>68.2370846345984</v>
+        <v>99.05542372323841</v>
       </c>
       <c r="G43" t="n">
-        <v>55.41851025959481</v>
+        <v>86.23684934823481</v>
       </c>
       <c r="H43" t="n">
         <v>53.99908040164613</v>
@@ -7582,37 +7582,37 @@
         <v>556.8126869825422</v>
       </c>
       <c r="O43" t="n">
-        <v>687.7907389640109</v>
+        <v>687.7907389640108</v>
       </c>
       <c r="P43" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="Q43" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="R43" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="S43" t="n">
-        <v>694.0095602473975</v>
+        <v>724.8278993360376</v>
       </c>
       <c r="T43" t="n">
-        <v>617.6999089677196</v>
+        <v>648.5182480563597</v>
       </c>
       <c r="U43" t="n">
-        <v>486.3889401713557</v>
+        <v>517.2072792599957</v>
       </c>
       <c r="V43" t="n">
-        <v>381.5201043168562</v>
+        <v>412.3384434054963</v>
       </c>
       <c r="W43" t="n">
-        <v>251.2301714213333</v>
+        <v>282.0485105099733</v>
       </c>
       <c r="X43" t="n">
-        <v>175.844175903787</v>
+        <v>206.662514992427</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.675485683142</v>
+        <v>140.493824771782</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>982.5135505619664</v>
       </c>
       <c r="E44" t="n">
-        <v>743.5942992551511</v>
+        <v>743.5942992551513</v>
       </c>
       <c r="F44" t="n">
-        <v>485.3095771523999</v>
+        <v>485.3095771523997</v>
       </c>
       <c r="G44" t="n">
         <v>225.5952952237861</v>
@@ -7646,13 +7646,13 @@
         <v>53.99908040164613</v>
       </c>
       <c r="J44" t="n">
-        <v>169.5228895060743</v>
+        <v>169.5228895060745</v>
       </c>
       <c r="K44" t="n">
         <v>474.8963507725018</v>
       </c>
       <c r="L44" t="n">
-        <v>903.7091393412265</v>
+        <v>903.7091393412267</v>
       </c>
       <c r="M44" t="n">
         <v>1386.995648363613</v>
@@ -7667,16 +7667,16 @@
         <v>2550.142583284549</v>
       </c>
       <c r="Q44" t="n">
-        <v>2699.954020082306</v>
+        <v>2699.954020082307</v>
       </c>
       <c r="R44" t="n">
-        <v>2699.954020082306</v>
+        <v>2699.954020082307</v>
       </c>
       <c r="S44" t="n">
         <v>2680.514754336112</v>
       </c>
       <c r="T44" t="n">
-        <v>2614.312742376055</v>
+        <v>2614.312742376054</v>
       </c>
       <c r="U44" t="n">
         <v>2515.335733559536</v>
@@ -7688,7 +7688,7 @@
         <v>2127.554466487234</v>
       </c>
       <c r="X44" t="n">
-        <v>1901.390794595806</v>
+        <v>1901.390794595805</v>
       </c>
       <c r="Y44" t="n">
         <v>1663.715407758721</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.98658558584033</v>
+        <v>81.98658558584042</v>
       </c>
       <c r="C46" t="n">
-        <v>68.23708463459852</v>
+        <v>68.23708463459857</v>
       </c>
       <c r="D46" t="n">
-        <v>68.23708463459852</v>
+        <v>68.23708463459857</v>
       </c>
       <c r="E46" t="n">
-        <v>68.23708463459852</v>
+        <v>68.23708463459857</v>
       </c>
       <c r="F46" t="n">
-        <v>68.23708463459852</v>
+        <v>68.23708463459857</v>
       </c>
       <c r="G46" t="n">
-        <v>55.41851025959487</v>
+        <v>55.4185102595949</v>
       </c>
       <c r="H46" t="n">
         <v>53.99908040164613</v>
@@ -7819,37 +7819,37 @@
         <v>556.8126869825422</v>
       </c>
       <c r="O46" t="n">
-        <v>687.7907389640109</v>
+        <v>687.7907389640108</v>
       </c>
       <c r="P46" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="Q46" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="R46" t="n">
-        <v>778.580913622352</v>
+        <v>778.5809136223519</v>
       </c>
       <c r="S46" t="n">
-        <v>694.0095602473981</v>
+        <v>724.8278993360376</v>
       </c>
       <c r="T46" t="n">
-        <v>617.69990896772</v>
+        <v>617.6999089677204</v>
       </c>
       <c r="U46" t="n">
-        <v>486.3889401713561</v>
+        <v>486.3889401713564</v>
       </c>
       <c r="V46" t="n">
-        <v>381.5201043168566</v>
+        <v>381.5201043168568</v>
       </c>
       <c r="W46" t="n">
-        <v>251.2301714213336</v>
+        <v>251.2301714213338</v>
       </c>
       <c r="X46" t="n">
-        <v>175.8441759037873</v>
+        <v>175.8441759037874</v>
       </c>
       <c r="Y46" t="n">
-        <v>109.6754856831423</v>
+        <v>109.6754856831424</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>159.0427441082865</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>190.7659506544006</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>203.5031588434685</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>198.6167178772967</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>197.8585175523677</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>198.8977434604743</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>199.8197557315104</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,25 +8529,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>114.9985183470206</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>123.4565725468042</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>124.5183802515017</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>127.4268492419938</v>
+        <v>126.9443059417775</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>118.6580877480622</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>120.7971527044972</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8617,7 +8617,7 @@
         <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>124.820146137783</v>
+        <v>124.3376028375667</v>
       </c>
       <c r="N10" t="n">
         <v>115.6874515583558</v>
@@ -8626,7 +8626,7 @@
         <v>124.4388841724762</v>
       </c>
       <c r="P10" t="n">
-        <v>123.36440667007</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236958</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8705,7 +8705,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229279</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,13 +8766,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>144.0833115741453</v>
+        <v>76.87037009515177</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>67.24148896340476</v>
       </c>
       <c r="L12" t="n">
-        <v>52.39724296728321</v>
+        <v>396.1735035992242</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236958</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8936,7 +8936,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355796</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
@@ -9003,19 +9003,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>76.87037009515177</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>67.24148896340476</v>
       </c>
       <c r="L15" t="n">
-        <v>482.0924488944969</v>
+        <v>396.1735035992242</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>368.3588999825242</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.35642042509905</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406824</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9243,16 +9243,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>67.24148896340475</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>432.4496617323475</v>
       </c>
       <c r="N18" t="n">
-        <v>368.3588999825242</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.35642042509905</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236958</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>76.87037009515176</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>176.0665972996367</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>173.6148463510197</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.35642042509905</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9644,7 +9644,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>584.3675935406822</v>
+        <v>584.3675935406824</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9714,19 +9714,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>76.87037009515176</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>314.3542380777814</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>173.6148463510197</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.35642042509905</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,19 +9951,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>76.87037009515176</v>
+        <v>76.87037009515177</v>
       </c>
       <c r="K27" t="n">
-        <v>67.24148896340475</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>396.1735035992238</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>260.6628221983991</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>76.87037009515177</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>173.6148463510192</v>
+        <v>260.6628221983991</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10434,13 +10434,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>155.8863425794003</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>62.4907747641488</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10662,16 +10662,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>76.87037009515176</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>314.3542380777814</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>155.8863425794001</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.35642042509905</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10899,16 +10899,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>76.87037009515176</v>
+        <v>76.87037009515177</v>
       </c>
       <c r="K39" t="n">
-        <v>176.0665972996367</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>437.6783720582844</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.35642042509905</v>
+        <v>78.35642042509906</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>76.87037009515177</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>67.24148896340475</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11151,10 +11151,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>62.49077476414834</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>328.0826539366454</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236953</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>309.4940685307341</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>328.6658846187112</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>92.20888282571926</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>119.289359915139</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>252.265687198798</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>286.6670143357381</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>308.2626427057002</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.62203899908567</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>86.5760156787164</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>69.14512993207424</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>69.61205426026055</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>85.65439836824062</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>74.36924529635627</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.4295625798501</v>
+        <v>54.42956257985003</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>148.5105645038682</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>172.9973049754383</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>138.4710130554255</v>
       </c>
     </row>
     <row r="14">
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>287.7519309608285</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>328.6658846187112</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>69.77489615835843</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>92.2088828257193</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>296.8660449095015</v>
+        <v>242.9907716108491</v>
       </c>
       <c r="Y14" t="n">
-        <v>51.48963676508721</v>
+        <v>308.2626427057002</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.3760208333159</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>86.57601567871637</v>
+        <v>86.57601567871636</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.19738007629475</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>69.1451299320742</v>
       </c>
       <c r="F16" t="n">
-        <v>51.13612000264042</v>
+        <v>69.61205426026051</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>85.65439836824056</v>
       </c>
       <c r="H16" t="n">
-        <v>74.36924529635624</v>
+        <v>74.36924529635623</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.42956257985007</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>4.424658922790333</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>201.9510433035547</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1020087.690620179</v>
+        <v>1020087.69062018</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1020087.69062018</v>
+        <v>1020087.690620179</v>
       </c>
     </row>
     <row r="7">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325497.5683906043</v>
+        <v>325497.5683906044</v>
       </c>
       <c r="C2" t="n">
         <v>325497.5683906045</v>
       </c>
       <c r="D2" t="n">
-        <v>326240.2257100274</v>
+        <v>326240.2257100273</v>
       </c>
       <c r="E2" t="n">
         <v>284075.5605411899</v>
       </c>
       <c r="F2" t="n">
-        <v>284075.5605411898</v>
+        <v>284075.5605411899</v>
       </c>
       <c r="G2" t="n">
         <v>326240.2257100276</v>
       </c>
       <c r="H2" t="n">
-        <v>326240.2257100273</v>
+        <v>326240.2257100277</v>
       </c>
       <c r="I2" t="n">
         <v>326240.2257100274</v>
@@ -26338,22 +26338,22 @@
         <v>326240.2257100269</v>
       </c>
       <c r="K2" t="n">
-        <v>326240.2257100268</v>
+        <v>326240.2257100267</v>
       </c>
       <c r="L2" t="n">
-        <v>326240.2257100278</v>
+        <v>326240.2257100279</v>
       </c>
       <c r="M2" t="n">
+        <v>326240.2257100276</v>
+      </c>
+      <c r="N2" t="n">
         <v>326240.2257100277</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>326240.2257100273</v>
+      </c>
+      <c r="P2" t="n">
         <v>326240.2257100276</v>
-      </c>
-      <c r="O2" t="n">
-        <v>326240.2257100275</v>
-      </c>
-      <c r="P2" t="n">
-        <v>326240.2257100275</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>366567.0705075371</v>
       </c>
       <c r="F3" t="n">
-        <v>1.734536324095512e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>58371.20778958956</v>
+        <v>58371.20778958955</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>75718.23208228609</v>
+        <v>75718.23208228617</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>60843.11112170242</v>
+        <v>60843.11112170237</v>
       </c>
       <c r="M3" t="n">
-        <v>157555.3564924065</v>
+        <v>157555.3564924066</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23965.27665807746</v>
+        <v>23965.27665807748</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>387212.3726853604</v>
       </c>
       <c r="E4" t="n">
-        <v>219743.1377329554</v>
+        <v>219743.1377329555</v>
       </c>
       <c r="F4" t="n">
         <v>219743.1377329555</v>
@@ -26439,13 +26439,13 @@
         <v>276187.7243048018</v>
       </c>
       <c r="J4" t="n">
-        <v>277224.3893572383</v>
+        <v>277224.3893572384</v>
       </c>
       <c r="K4" t="n">
         <v>277224.3893572384</v>
       </c>
       <c r="L4" t="n">
-        <v>277160.421696216</v>
+        <v>277160.4216962159</v>
       </c>
       <c r="M4" t="n">
         <v>276187.7243048018</v>
@@ -26476,7 +26476,7 @@
         <v>34353.73115816552</v>
       </c>
       <c r="E5" t="n">
-        <v>50686.79693735616</v>
+        <v>50686.79693735618</v>
       </c>
       <c r="F5" t="n">
         <v>50686.79693735617</v>
@@ -26494,22 +26494,22 @@
         <v>64526.92496473954</v>
       </c>
       <c r="K5" t="n">
-        <v>64526.92496473955</v>
+        <v>64526.92496473954</v>
       </c>
       <c r="L5" t="n">
-        <v>64060.55685810827</v>
+        <v>64060.55685810826</v>
       </c>
       <c r="M5" t="n">
         <v>56820.80827193493</v>
       </c>
       <c r="N5" t="n">
-        <v>56820.80827193492</v>
+        <v>56820.80827193493</v>
       </c>
       <c r="O5" t="n">
         <v>56820.80827193493</v>
       </c>
       <c r="P5" t="n">
-        <v>56820.80827193492</v>
+        <v>56820.80827193493</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96125.69099192836</v>
+        <v>-96130.0595643955</v>
       </c>
       <c r="C6" t="n">
-        <v>-96125.69099192819</v>
+        <v>-96130.05956439544</v>
       </c>
       <c r="D6" t="n">
-        <v>-99035.71566081684</v>
+        <v>-99035.7156608169</v>
       </c>
       <c r="E6" t="n">
-        <v>-352921.4446366588</v>
+        <v>-353169.4720788285</v>
       </c>
       <c r="F6" t="n">
-        <v>13645.62587087818</v>
+        <v>13397.5984287086</v>
       </c>
       <c r="G6" t="n">
-        <v>-65139.51465629863</v>
+        <v>-65139.51465629868</v>
       </c>
       <c r="H6" t="n">
-        <v>-6768.306866709383</v>
+        <v>-6768.306866709034</v>
       </c>
       <c r="I6" t="n">
-        <v>-6768.306866709325</v>
+        <v>-6768.306866709267</v>
       </c>
       <c r="J6" t="n">
-        <v>-91229.32069423707</v>
+        <v>-91229.32069423719</v>
       </c>
       <c r="K6" t="n">
-        <v>-15511.08861195117</v>
+        <v>-15511.08861195122</v>
       </c>
       <c r="L6" t="n">
-        <v>-75823.86396599887</v>
+        <v>-75823.86396599864</v>
       </c>
       <c r="M6" t="n">
-        <v>-164323.6633591155</v>
+        <v>-164323.6633591157</v>
       </c>
       <c r="N6" t="n">
-        <v>-6768.306866709027</v>
+        <v>-6768.306866709034</v>
       </c>
       <c r="O6" t="n">
-        <v>-30733.5835247867</v>
+        <v>-30733.583524787</v>
       </c>
       <c r="P6" t="n">
-        <v>-6768.306866709201</v>
+        <v>-6768.306866709034</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="F2" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="G2" t="n">
         <v>154.3078039012071</v>
@@ -26719,7 +26719,7 @@
         <v>154.3078039012071</v>
       </c>
       <c r="N2" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="O2" t="n">
         <v>154.3078039012072</v>
@@ -26814,10 +26814,10 @@
         <v>872.7876344644345</v>
       </c>
       <c r="K4" t="n">
-        <v>872.7876344644345</v>
+        <v>872.7876344644344</v>
       </c>
       <c r="L4" t="n">
-        <v>860.8446877840806</v>
+        <v>860.8446877840805</v>
       </c>
       <c r="M4" t="n">
         <v>674.9885050205767</v>
@@ -26826,10 +26826,10 @@
         <v>674.9885050205767</v>
       </c>
       <c r="O4" t="n">
-        <v>674.9885050205766</v>
+        <v>674.9885050205767</v>
       </c>
       <c r="P4" t="n">
-        <v>674.9885050205766</v>
+        <v>674.9885050205767</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="F2" t="n">
-        <v>2.16817040511939e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>72.96400973698695</v>
+        <v>72.96400973698694</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.95659582259668</v>
+        <v>29.95659582259677</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.05388890212802</v>
+        <v>76.05388890212797</v>
       </c>
       <c r="M2" t="n">
-        <v>48.29731917648233</v>
+        <v>48.29731917648236</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.95659582259682</v>
+        <v>29.95659582259685</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>477.1893755767188</v>
+        <v>477.1893755767189</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="K2" t="n">
-        <v>2.16817040511939e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.96400973698695</v>
+        <v>72.96400973698694</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.95659582259668</v>
+        <v>29.95659582259677</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>379.5837566867833</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27862,7 +27862,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>399.4903313468757</v>
+        <v>398.0667321025775</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.7889569587513</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>173.4137389355957</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>377.6634901895665</v>
       </c>
     </row>
     <row r="9">
@@ -27932,10 +27932,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>148.143689351101</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>126.9309032036343</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>48.66707877994797</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>174.8553061153208</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>204.366897797319</v>
       </c>
       <c r="V9" t="n">
         <v>214.1687196457955</v>
@@ -27995,7 +27995,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>183.9948715606295</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28011,10 +28011,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>155.9768631625826</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>141.0218268044592</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28029,10 +28029,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>132.2416665172925</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>47.51371951961512</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>26.20902125249397</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>136.0836168914117</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>218.9042169721241</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="C11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="D11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="E11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="F11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="G11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="H11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="I11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.19285561481073</v>
+        <v>57.19285561481075</v>
       </c>
       <c r="S11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="T11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="U11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="V11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="W11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="X11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="Y11" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="C13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="D13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="E13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="F13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="G13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="H13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="I13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="J13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="K13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="L13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="M13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="N13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="O13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="P13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="R13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="S13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="T13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="U13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="V13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="W13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="X13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
       <c r="Y13" t="n">
-        <v>81.3437941642201</v>
+        <v>81.34379416422018</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="C14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="D14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="E14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="F14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="G14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="H14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="I14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.19285561481073</v>
+        <v>57.19285561481075</v>
       </c>
       <c r="S14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="T14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="U14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="V14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="W14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="X14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="Y14" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="C16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="D16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="E16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="F16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="G16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="H16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="I16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="J16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="K16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="L16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="M16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="N16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="O16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="P16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="R16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="S16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="T16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="U16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="V16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="W16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="X16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.34379416422013</v>
+        <v>81.34379416422014</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.19285561481073</v>
+        <v>57.19285561481074</v>
       </c>
       <c r="S17" t="n">
         <v>154.3078039012071</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.3078039012071</v>
+        <v>142.4927507932973</v>
       </c>
       <c r="C19" t="n">
         <v>154.3078039012071</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.69510258984298</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>137.5788753743383</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7976482034542</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="T19" t="n">
         <v>154.3078039012071</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.19285561481073</v>
+        <v>57.19285561481074</v>
       </c>
       <c r="S20" t="n">
         <v>154.3078039012071</v>
@@ -28980,7 +28980,7 @@
         <v>135.7733567440702</v>
       </c>
       <c r="J22" t="n">
-        <v>43.02891223486762</v>
+        <v>12.51875653711476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.69510258984298</v>
+        <v>18.69510258984299</v>
       </c>
       <c r="R22" t="n">
-        <v>107.0687196765855</v>
+        <v>137.5788753743383</v>
       </c>
       <c r="S22" t="n">
         <v>154.3078039012071</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>57.19285561481073</v>
+        <v>57.19285561481074</v>
       </c>
       <c r="S23" t="n">
         <v>154.3078039012071</v>
@@ -29196,7 +29196,7 @@
         <v>154.3078039012071</v>
       </c>
       <c r="C25" t="n">
-        <v>123.7976482034542</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.69510258984298</v>
+        <v>18.69510258984299</v>
       </c>
       <c r="R25" t="n">
         <v>137.5788753743383</v>
@@ -29247,7 +29247,7 @@
         <v>154.3078039012071</v>
       </c>
       <c r="T25" t="n">
-        <v>154.3078039012071</v>
+        <v>123.7976482034543</v>
       </c>
       <c r="U25" t="n">
         <v>154.3078039012071</v>
@@ -29296,7 +29296,7 @@
         <v>102.9206055595837</v>
       </c>
       <c r="J26" t="n">
-        <v>17.0326448956385</v>
+        <v>102.9206055595837</v>
       </c>
       <c r="K26" t="n">
         <v>102.9206055595837</v>
@@ -29311,7 +29311,7 @@
         <v>102.9206055595837</v>
       </c>
       <c r="O26" t="n">
-        <v>102.9206055595837</v>
+        <v>17.03264489563895</v>
       </c>
       <c r="P26" t="n">
         <v>102.9206055595837</v>
@@ -29542,7 +29542,7 @@
         <v>102.9206055595837</v>
       </c>
       <c r="M29" t="n">
-        <v>17.03264489563861</v>
+        <v>17.0326448956389</v>
       </c>
       <c r="N29" t="n">
         <v>102.9206055595837</v>
@@ -29770,16 +29770,16 @@
         <v>106.0104847247247</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="K32" t="n">
-        <v>51.03485287803596</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="L32" t="n">
-        <v>106.0104847247247</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.0104847247247</v>
+        <v>51.03485287803557</v>
       </c>
       <c r="N32" t="n">
         <v>106.0104847247247</v>
@@ -29931,7 +29931,7 @@
         <v>106.0104847247247</v>
       </c>
       <c r="K34" t="n">
-        <v>30.84959175431815</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="L34" t="n">
         <v>106.0104847247247</v>
@@ -29940,7 +29940,7 @@
         <v>106.0104847247247</v>
       </c>
       <c r="N34" t="n">
-        <v>106.0104847247247</v>
+        <v>30.84959175431879</v>
       </c>
       <c r="O34" t="n">
         <v>106.0104847247247</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>57.19285561481073</v>
+        <v>57.19285561481074</v>
       </c>
       <c r="S35" t="n">
         <v>154.3078039012071</v>
@@ -30153,7 +30153,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>120.4456927267278</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>154.3078039012071</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.69510258984298</v>
+        <v>18.69510258984299</v>
       </c>
       <c r="R37" t="n">
-        <v>137.5788753743383</v>
+        <v>107.0687196765856</v>
       </c>
       <c r="S37" t="n">
         <v>154.3078039012071</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="C38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="D38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="E38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="F38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="G38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="H38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="I38" t="n">
         <v>151.1186903225786</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>57.19285561481073</v>
+        <v>57.19285561481074</v>
       </c>
       <c r="S38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="T38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="U38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="V38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="W38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="X38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="Y38" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
     </row>
     <row r="39">
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154.307803901207</v>
+        <v>123.7976482034542</v>
       </c>
       <c r="C40" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="D40" t="n">
-        <v>121.0310185427627</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30393,10 +30393,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="H40" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="I40" t="n">
         <v>135.7733567440702</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.69510258984298</v>
+        <v>18.69510258984299</v>
       </c>
       <c r="R40" t="n">
         <v>137.5788753743383</v>
       </c>
       <c r="S40" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="T40" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="U40" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="V40" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="W40" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="X40" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.307803901207</v>
+        <v>154.3078039012071</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>57.19285561481073</v>
+        <v>57.19285561481074</v>
       </c>
       <c r="S41" t="n">
         <v>154.3078039012072</v>
@@ -30633,7 +30633,7 @@
         <v>154.3078039012072</v>
       </c>
       <c r="H43" t="n">
-        <v>154.3078039012072</v>
+        <v>123.7976482034536</v>
       </c>
       <c r="I43" t="n">
         <v>135.7733567440702</v>
@@ -30660,13 +30660,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.69510258984298</v>
+        <v>18.69510258984299</v>
       </c>
       <c r="R43" t="n">
         <v>137.5788753743383</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7976482034533</v>
+        <v>154.3078039012072</v>
       </c>
       <c r="T43" t="n">
         <v>154.3078039012072</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.19285561481073</v>
+        <v>57.19285561481074</v>
       </c>
       <c r="S44" t="n">
         <v>154.3078039012071</v>
@@ -30897,16 +30897,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.69510258984298</v>
+        <v>18.69510258984299</v>
       </c>
       <c r="R46" t="n">
         <v>137.5788753743383</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7976482034539</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="T46" t="n">
-        <v>154.3078039012071</v>
+        <v>123.7976482034543</v>
       </c>
       <c r="U46" t="n">
         <v>154.3078039012071</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5180036698194245</v>
+        <v>0.5180036698194243</v>
       </c>
       <c r="H11" t="n">
-        <v>5.305005083538182</v>
+        <v>5.30500508353818</v>
       </c>
       <c r="I11" t="n">
-        <v>19.97033648071338</v>
+        <v>19.97033648071337</v>
       </c>
       <c r="J11" t="n">
-        <v>43.96491397133642</v>
+        <v>43.9649139713364</v>
       </c>
       <c r="K11" t="n">
-        <v>65.89200931479267</v>
+        <v>65.89200931479265</v>
       </c>
       <c r="L11" t="n">
-        <v>81.7448641250289</v>
+        <v>81.74486412502887</v>
       </c>
       <c r="M11" t="n">
-        <v>90.95691188818009</v>
+        <v>90.95691188818004</v>
       </c>
       <c r="N11" t="n">
-        <v>92.42868981505454</v>
+        <v>92.4286898150545</v>
       </c>
       <c r="O11" t="n">
-        <v>87.27779082328763</v>
+        <v>87.27779082328759</v>
       </c>
       <c r="P11" t="n">
-        <v>74.48957522462057</v>
+        <v>74.48957522462054</v>
       </c>
       <c r="Q11" t="n">
-        <v>55.93856879921241</v>
+        <v>55.93856879921239</v>
       </c>
       <c r="R11" t="n">
-        <v>32.53904802429445</v>
+        <v>32.53904802429444</v>
       </c>
       <c r="S11" t="n">
-        <v>11.80400862601015</v>
+        <v>11.80400862601014</v>
       </c>
       <c r="T11" t="n">
-        <v>2.267561064634532</v>
+        <v>2.267561064634531</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04144029358555395</v>
+        <v>0.04144029358555393</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2771563974887611</v>
+        <v>0.277156397488761</v>
       </c>
       <c r="H12" t="n">
-        <v>2.676747312588825</v>
+        <v>2.676747312588824</v>
       </c>
       <c r="I12" t="n">
-        <v>9.542446141608664</v>
+        <v>9.542446141608659</v>
       </c>
       <c r="J12" t="n">
-        <v>26.18520157151493</v>
+        <v>26.18520157151492</v>
       </c>
       <c r="K12" t="n">
-        <v>44.75468020326193</v>
+        <v>44.75468020326191</v>
       </c>
       <c r="L12" t="n">
-        <v>60.17819060386457</v>
+        <v>60.17819060386454</v>
       </c>
       <c r="M12" t="n">
-        <v>70.22511001283215</v>
+        <v>70.22511001283212</v>
       </c>
       <c r="N12" t="n">
-        <v>72.0837597135353</v>
+        <v>72.08375971353527</v>
       </c>
       <c r="O12" t="n">
-        <v>65.94255743233695</v>
+        <v>65.94255743233693</v>
       </c>
       <c r="P12" t="n">
-        <v>52.92471593800739</v>
+        <v>52.92471593800737</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.37877101979345</v>
+        <v>35.37877101979343</v>
       </c>
       <c r="R12" t="n">
         <v>17.20800860899519</v>
       </c>
       <c r="S12" t="n">
-        <v>5.148058523530275</v>
+        <v>5.148058523530273</v>
       </c>
       <c r="T12" t="n">
-        <v>1.117134777597243</v>
+        <v>1.117134777597242</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01823397351899745</v>
+        <v>0.01823397351899744</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2323586133677707</v>
+        <v>0.2323586133677706</v>
       </c>
       <c r="H13" t="n">
-        <v>2.065879307942545</v>
+        <v>2.065879307942544</v>
       </c>
       <c r="I13" t="n">
-        <v>6.987657209278051</v>
+        <v>6.987657209278049</v>
       </c>
       <c r="J13" t="n">
         <v>16.42775396510138</v>
       </c>
       <c r="K13" t="n">
-        <v>26.99584617127372</v>
+        <v>26.9958461712737</v>
       </c>
       <c r="L13" t="n">
-        <v>34.54538875469566</v>
+        <v>34.54538875469564</v>
       </c>
       <c r="M13" t="n">
-        <v>36.42326882091336</v>
+        <v>36.42326882091334</v>
       </c>
       <c r="N13" t="n">
-        <v>35.55720489836079</v>
+        <v>35.55720489836077</v>
       </c>
       <c r="O13" t="n">
-        <v>32.84283382401909</v>
+        <v>32.84283382401907</v>
       </c>
       <c r="P13" t="n">
-        <v>28.10271811131654</v>
+        <v>28.10271811131653</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.45686534300487</v>
+        <v>19.45686534300486</v>
       </c>
       <c r="R13" t="n">
         <v>10.44768819742721</v>
       </c>
       <c r="S13" t="n">
-        <v>4.049376925691057</v>
+        <v>4.049376925691055</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9928049843895654</v>
+        <v>0.992804984389565</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0126741061836966</v>
+        <v>0.01267410618369659</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5180036698194245</v>
+        <v>0.5180036698194243</v>
       </c>
       <c r="H14" t="n">
-        <v>5.305005083538182</v>
+        <v>5.30500508353818</v>
       </c>
       <c r="I14" t="n">
-        <v>19.97033648071338</v>
+        <v>19.97033648071337</v>
       </c>
       <c r="J14" t="n">
-        <v>43.96491397133642</v>
+        <v>43.9649139713364</v>
       </c>
       <c r="K14" t="n">
-        <v>65.89200931479267</v>
+        <v>65.89200931479265</v>
       </c>
       <c r="L14" t="n">
-        <v>81.7448641250289</v>
+        <v>81.74486412502887</v>
       </c>
       <c r="M14" t="n">
-        <v>90.95691188818009</v>
+        <v>90.95691188818004</v>
       </c>
       <c r="N14" t="n">
-        <v>92.42868981505454</v>
+        <v>92.4286898150545</v>
       </c>
       <c r="O14" t="n">
-        <v>87.27779082328763</v>
+        <v>87.27779082328759</v>
       </c>
       <c r="P14" t="n">
-        <v>74.48957522462057</v>
+        <v>74.48957522462054</v>
       </c>
       <c r="Q14" t="n">
-        <v>55.93856879921241</v>
+        <v>55.93856879921239</v>
       </c>
       <c r="R14" t="n">
-        <v>32.53904802429445</v>
+        <v>32.53904802429444</v>
       </c>
       <c r="S14" t="n">
-        <v>11.80400862601015</v>
+        <v>11.80400862601014</v>
       </c>
       <c r="T14" t="n">
-        <v>2.267561064634532</v>
+        <v>2.267561064634531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04144029358555395</v>
+        <v>0.04144029358555393</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2771563974887611</v>
+        <v>0.277156397488761</v>
       </c>
       <c r="H15" t="n">
-        <v>2.676747312588825</v>
+        <v>2.676747312588824</v>
       </c>
       <c r="I15" t="n">
-        <v>9.542446141608664</v>
+        <v>9.542446141608659</v>
       </c>
       <c r="J15" t="n">
-        <v>26.18520157151493</v>
+        <v>26.18520157151492</v>
       </c>
       <c r="K15" t="n">
-        <v>44.75468020326193</v>
+        <v>44.75468020326191</v>
       </c>
       <c r="L15" t="n">
-        <v>60.17819060386457</v>
+        <v>60.17819060386454</v>
       </c>
       <c r="M15" t="n">
-        <v>70.22511001283215</v>
+        <v>70.22511001283212</v>
       </c>
       <c r="N15" t="n">
-        <v>72.0837597135353</v>
+        <v>72.08375971353527</v>
       </c>
       <c r="O15" t="n">
-        <v>65.94255743233695</v>
+        <v>65.94255743233693</v>
       </c>
       <c r="P15" t="n">
-        <v>52.92471593800739</v>
+        <v>52.92471593800737</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.37877101979345</v>
+        <v>35.37877101979343</v>
       </c>
       <c r="R15" t="n">
         <v>17.20800860899519</v>
       </c>
       <c r="S15" t="n">
-        <v>5.148058523530275</v>
+        <v>5.148058523530273</v>
       </c>
       <c r="T15" t="n">
-        <v>1.117134777597243</v>
+        <v>1.117134777597242</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01823397351899745</v>
+        <v>0.01823397351899744</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2323586133677707</v>
+        <v>0.2323586133677706</v>
       </c>
       <c r="H16" t="n">
-        <v>2.065879307942545</v>
+        <v>2.065879307942544</v>
       </c>
       <c r="I16" t="n">
-        <v>6.987657209278051</v>
+        <v>6.987657209278049</v>
       </c>
       <c r="J16" t="n">
         <v>16.42775396510138</v>
       </c>
       <c r="K16" t="n">
-        <v>26.99584617127372</v>
+        <v>26.9958461712737</v>
       </c>
       <c r="L16" t="n">
-        <v>34.54538875469566</v>
+        <v>34.54538875469564</v>
       </c>
       <c r="M16" t="n">
-        <v>36.42326882091336</v>
+        <v>36.42326882091334</v>
       </c>
       <c r="N16" t="n">
-        <v>35.55720489836079</v>
+        <v>35.55720489836077</v>
       </c>
       <c r="O16" t="n">
-        <v>32.84283382401909</v>
+        <v>32.84283382401907</v>
       </c>
       <c r="P16" t="n">
-        <v>28.10271811131654</v>
+        <v>28.10271811131653</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.45686534300487</v>
+        <v>19.45686534300486</v>
       </c>
       <c r="R16" t="n">
         <v>10.44768819742721</v>
       </c>
       <c r="S16" t="n">
-        <v>4.049376925691057</v>
+        <v>4.049376925691055</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9928049843895654</v>
+        <v>0.992804984389565</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0126741061836966</v>
+        <v>0.01267410618369659</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5180036698194245</v>
+        <v>0.5180036698194244</v>
       </c>
       <c r="H17" t="n">
-        <v>5.305005083538182</v>
+        <v>5.305005083538181</v>
       </c>
       <c r="I17" t="n">
         <v>19.97033648071338</v>
       </c>
       <c r="J17" t="n">
-        <v>43.96491397133642</v>
+        <v>43.96491397133641</v>
       </c>
       <c r="K17" t="n">
-        <v>65.89200931479267</v>
+        <v>65.89200931479266</v>
       </c>
       <c r="L17" t="n">
-        <v>81.7448641250289</v>
+        <v>81.74486412502888</v>
       </c>
       <c r="M17" t="n">
-        <v>90.95691188818009</v>
+        <v>90.95691188818006</v>
       </c>
       <c r="N17" t="n">
-        <v>92.42868981505454</v>
+        <v>92.42868981505451</v>
       </c>
       <c r="O17" t="n">
-        <v>87.27779082328763</v>
+        <v>87.2777908232876</v>
       </c>
       <c r="P17" t="n">
-        <v>74.48957522462057</v>
+        <v>74.48957522462055</v>
       </c>
       <c r="Q17" t="n">
-        <v>55.93856879921241</v>
+        <v>55.9385687992124</v>
       </c>
       <c r="R17" t="n">
-        <v>32.53904802429445</v>
+        <v>32.53904802429444</v>
       </c>
       <c r="S17" t="n">
-        <v>11.80400862601015</v>
+        <v>11.80400862601014</v>
       </c>
       <c r="T17" t="n">
-        <v>2.267561064634532</v>
+        <v>2.267561064634531</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04144029358555395</v>
+        <v>0.04144029358555394</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>2.676747312588825</v>
       </c>
       <c r="I18" t="n">
-        <v>9.542446141608664</v>
+        <v>9.542446141608663</v>
       </c>
       <c r="J18" t="n">
         <v>26.18520157151493</v>
       </c>
       <c r="K18" t="n">
-        <v>44.75468020326193</v>
+        <v>44.75468020326192</v>
       </c>
       <c r="L18" t="n">
-        <v>60.17819060386457</v>
+        <v>60.17819060386456</v>
       </c>
       <c r="M18" t="n">
-        <v>70.22511001283215</v>
+        <v>70.22511001283213</v>
       </c>
       <c r="N18" t="n">
-        <v>72.0837597135353</v>
+        <v>72.08375971353529</v>
       </c>
       <c r="O18" t="n">
-        <v>65.94255743233695</v>
+        <v>65.94255743233694</v>
       </c>
       <c r="P18" t="n">
-        <v>52.92471593800739</v>
+        <v>52.92471593800737</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.37877101979345</v>
+        <v>35.37877101979344</v>
       </c>
       <c r="R18" t="n">
         <v>17.20800860899519</v>
       </c>
       <c r="S18" t="n">
-        <v>5.148058523530275</v>
+        <v>5.148058523530274</v>
       </c>
       <c r="T18" t="n">
         <v>1.117134777597243</v>
@@ -32382,31 +32382,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2323586133677707</v>
+        <v>0.2323586133677706</v>
       </c>
       <c r="H19" t="n">
-        <v>2.065879307942545</v>
+        <v>2.065879307942544</v>
       </c>
       <c r="I19" t="n">
-        <v>6.987657209278051</v>
+        <v>6.98765720927805</v>
       </c>
       <c r="J19" t="n">
         <v>16.42775396510138</v>
       </c>
       <c r="K19" t="n">
-        <v>26.99584617127372</v>
+        <v>26.99584617127371</v>
       </c>
       <c r="L19" t="n">
-        <v>34.54538875469566</v>
+        <v>34.54538875469565</v>
       </c>
       <c r="M19" t="n">
-        <v>36.42326882091336</v>
+        <v>36.42326882091335</v>
       </c>
       <c r="N19" t="n">
-        <v>35.55720489836079</v>
+        <v>35.55720489836078</v>
       </c>
       <c r="O19" t="n">
-        <v>32.84283382401909</v>
+        <v>32.84283382401908</v>
       </c>
       <c r="P19" t="n">
         <v>28.10271811131654</v>
@@ -32418,13 +32418,13 @@
         <v>10.44768819742721</v>
       </c>
       <c r="S19" t="n">
-        <v>4.049376925691057</v>
+        <v>4.049376925691056</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9928049843895654</v>
+        <v>0.9928049843895652</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0126741061836966</v>
+        <v>0.01267410618369659</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5180036698194245</v>
+        <v>0.5180036698194244</v>
       </c>
       <c r="H20" t="n">
-        <v>5.305005083538182</v>
+        <v>5.305005083538181</v>
       </c>
       <c r="I20" t="n">
         <v>19.97033648071338</v>
       </c>
       <c r="J20" t="n">
-        <v>43.96491397133642</v>
+        <v>43.96491397133641</v>
       </c>
       <c r="K20" t="n">
-        <v>65.89200931479267</v>
+        <v>65.89200931479266</v>
       </c>
       <c r="L20" t="n">
-        <v>81.7448641250289</v>
+        <v>81.74486412502888</v>
       </c>
       <c r="M20" t="n">
-        <v>90.95691188818009</v>
+        <v>90.95691188818006</v>
       </c>
       <c r="N20" t="n">
-        <v>92.42868981505454</v>
+        <v>92.42868981505451</v>
       </c>
       <c r="O20" t="n">
-        <v>87.27779082328763</v>
+        <v>87.2777908232876</v>
       </c>
       <c r="P20" t="n">
-        <v>74.48957522462057</v>
+        <v>74.48957522462055</v>
       </c>
       <c r="Q20" t="n">
-        <v>55.93856879921241</v>
+        <v>55.9385687992124</v>
       </c>
       <c r="R20" t="n">
-        <v>32.53904802429445</v>
+        <v>32.53904802429444</v>
       </c>
       <c r="S20" t="n">
-        <v>11.80400862601015</v>
+        <v>11.80400862601014</v>
       </c>
       <c r="T20" t="n">
-        <v>2.267561064634532</v>
+        <v>2.267561064634531</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04144029358555395</v>
+        <v>0.04144029358555394</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32546,37 @@
         <v>2.676747312588825</v>
       </c>
       <c r="I21" t="n">
-        <v>9.542446141608664</v>
+        <v>9.542446141608663</v>
       </c>
       <c r="J21" t="n">
         <v>26.18520157151493</v>
       </c>
       <c r="K21" t="n">
-        <v>44.75468020326193</v>
+        <v>44.75468020326192</v>
       </c>
       <c r="L21" t="n">
-        <v>60.17819060386457</v>
+        <v>60.17819060386456</v>
       </c>
       <c r="M21" t="n">
-        <v>70.22511001283215</v>
+        <v>70.22511001283213</v>
       </c>
       <c r="N21" t="n">
-        <v>72.0837597135353</v>
+        <v>72.08375971353529</v>
       </c>
       <c r="O21" t="n">
-        <v>65.94255743233695</v>
+        <v>65.94255743233694</v>
       </c>
       <c r="P21" t="n">
-        <v>52.92471593800739</v>
+        <v>52.92471593800737</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.37877101979345</v>
+        <v>35.37877101979344</v>
       </c>
       <c r="R21" t="n">
         <v>17.20800860899519</v>
       </c>
       <c r="S21" t="n">
-        <v>5.148058523530275</v>
+        <v>5.148058523530274</v>
       </c>
       <c r="T21" t="n">
         <v>1.117134777597243</v>
@@ -32619,31 +32619,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2323586133677707</v>
+        <v>0.2323586133677706</v>
       </c>
       <c r="H22" t="n">
-        <v>2.065879307942545</v>
+        <v>2.065879307942544</v>
       </c>
       <c r="I22" t="n">
-        <v>6.987657209278051</v>
+        <v>6.98765720927805</v>
       </c>
       <c r="J22" t="n">
         <v>16.42775396510138</v>
       </c>
       <c r="K22" t="n">
-        <v>26.99584617127372</v>
+        <v>26.99584617127371</v>
       </c>
       <c r="L22" t="n">
-        <v>34.54538875469566</v>
+        <v>34.54538875469565</v>
       </c>
       <c r="M22" t="n">
-        <v>36.42326882091336</v>
+        <v>36.42326882091335</v>
       </c>
       <c r="N22" t="n">
-        <v>35.55720489836079</v>
+        <v>35.55720489836078</v>
       </c>
       <c r="O22" t="n">
-        <v>32.84283382401909</v>
+        <v>32.84283382401908</v>
       </c>
       <c r="P22" t="n">
         <v>28.10271811131654</v>
@@ -32655,13 +32655,13 @@
         <v>10.44768819742721</v>
       </c>
       <c r="S22" t="n">
-        <v>4.049376925691057</v>
+        <v>4.049376925691056</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9928049843895654</v>
+        <v>0.9928049843895652</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0126741061836966</v>
+        <v>0.01267410618369659</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5180036698194245</v>
+        <v>0.5180036698194244</v>
       </c>
       <c r="H23" t="n">
-        <v>5.305005083538182</v>
+        <v>5.305005083538181</v>
       </c>
       <c r="I23" t="n">
         <v>19.97033648071338</v>
       </c>
       <c r="J23" t="n">
-        <v>43.96491397133642</v>
+        <v>43.96491397133641</v>
       </c>
       <c r="K23" t="n">
-        <v>65.89200931479267</v>
+        <v>65.89200931479266</v>
       </c>
       <c r="L23" t="n">
-        <v>81.7448641250289</v>
+        <v>81.74486412502888</v>
       </c>
       <c r="M23" t="n">
-        <v>90.95691188818009</v>
+        <v>90.95691188818006</v>
       </c>
       <c r="N23" t="n">
-        <v>92.42868981505454</v>
+        <v>92.42868981505451</v>
       </c>
       <c r="O23" t="n">
-        <v>87.27779082328763</v>
+        <v>87.2777908232876</v>
       </c>
       <c r="P23" t="n">
-        <v>74.48957522462057</v>
+        <v>74.48957522462055</v>
       </c>
       <c r="Q23" t="n">
-        <v>55.93856879921241</v>
+        <v>55.9385687992124</v>
       </c>
       <c r="R23" t="n">
-        <v>32.53904802429445</v>
+        <v>32.53904802429444</v>
       </c>
       <c r="S23" t="n">
-        <v>11.80400862601015</v>
+        <v>11.80400862601014</v>
       </c>
       <c r="T23" t="n">
-        <v>2.267561064634532</v>
+        <v>2.267561064634531</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04144029358555395</v>
+        <v>0.04144029358555394</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,37 +32783,37 @@
         <v>2.676747312588825</v>
       </c>
       <c r="I24" t="n">
-        <v>9.542446141608664</v>
+        <v>9.542446141608663</v>
       </c>
       <c r="J24" t="n">
         <v>26.18520157151493</v>
       </c>
       <c r="K24" t="n">
-        <v>44.75468020326193</v>
+        <v>44.75468020326192</v>
       </c>
       <c r="L24" t="n">
-        <v>60.17819060386457</v>
+        <v>60.17819060386456</v>
       </c>
       <c r="M24" t="n">
-        <v>70.22511001283215</v>
+        <v>70.22511001283213</v>
       </c>
       <c r="N24" t="n">
-        <v>72.0837597135353</v>
+        <v>72.08375971353529</v>
       </c>
       <c r="O24" t="n">
-        <v>65.94255743233695</v>
+        <v>65.94255743233694</v>
       </c>
       <c r="P24" t="n">
-        <v>52.92471593800739</v>
+        <v>52.92471593800737</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.37877101979345</v>
+        <v>35.37877101979344</v>
       </c>
       <c r="R24" t="n">
         <v>17.20800860899519</v>
       </c>
       <c r="S24" t="n">
-        <v>5.148058523530275</v>
+        <v>5.148058523530274</v>
       </c>
       <c r="T24" t="n">
         <v>1.117134777597243</v>
@@ -32856,31 +32856,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2323586133677707</v>
+        <v>0.2323586133677706</v>
       </c>
       <c r="H25" t="n">
-        <v>2.065879307942545</v>
+        <v>2.065879307942544</v>
       </c>
       <c r="I25" t="n">
-        <v>6.987657209278051</v>
+        <v>6.98765720927805</v>
       </c>
       <c r="J25" t="n">
         <v>16.42775396510138</v>
       </c>
       <c r="K25" t="n">
-        <v>26.99584617127372</v>
+        <v>26.99584617127371</v>
       </c>
       <c r="L25" t="n">
-        <v>34.54538875469566</v>
+        <v>34.54538875469565</v>
       </c>
       <c r="M25" t="n">
-        <v>36.42326882091336</v>
+        <v>36.42326882091335</v>
       </c>
       <c r="N25" t="n">
-        <v>35.55720489836079</v>
+        <v>35.55720489836078</v>
       </c>
       <c r="O25" t="n">
-        <v>32.84283382401909</v>
+        <v>32.84283382401908</v>
       </c>
       <c r="P25" t="n">
         <v>28.10271811131654</v>
@@ -32892,13 +32892,13 @@
         <v>10.44768819742721</v>
       </c>
       <c r="S25" t="n">
-        <v>4.049376925691057</v>
+        <v>4.049376925691056</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9928049843895654</v>
+        <v>0.9928049843895652</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0126741061836966</v>
+        <v>0.01267410618369659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5180036698194245</v>
+        <v>0.5180036698194244</v>
       </c>
       <c r="H26" t="n">
-        <v>5.305005083538182</v>
+        <v>5.305005083538181</v>
       </c>
       <c r="I26" t="n">
         <v>19.97033648071338</v>
       </c>
       <c r="J26" t="n">
-        <v>43.96491397133642</v>
+        <v>43.96491397133641</v>
       </c>
       <c r="K26" t="n">
-        <v>65.89200931479267</v>
+        <v>65.89200931479266</v>
       </c>
       <c r="L26" t="n">
-        <v>81.7448641250289</v>
+        <v>81.74486412502888</v>
       </c>
       <c r="M26" t="n">
-        <v>90.95691188818009</v>
+        <v>90.95691188818006</v>
       </c>
       <c r="N26" t="n">
-        <v>92.42868981505454</v>
+        <v>92.42868981505451</v>
       </c>
       <c r="O26" t="n">
-        <v>87.27779082328763</v>
+        <v>87.2777908232876</v>
       </c>
       <c r="P26" t="n">
-        <v>74.48957522462057</v>
+        <v>74.48957522462055</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.93856879921241</v>
+        <v>55.9385687992124</v>
       </c>
       <c r="R26" t="n">
-        <v>32.53904802429445</v>
+        <v>32.53904802429444</v>
       </c>
       <c r="S26" t="n">
-        <v>11.80400862601015</v>
+        <v>11.80400862601014</v>
       </c>
       <c r="T26" t="n">
-        <v>2.267561064634532</v>
+        <v>2.267561064634531</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04144029358555395</v>
+        <v>0.04144029358555394</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>2.676747312588825</v>
       </c>
       <c r="I27" t="n">
-        <v>9.542446141608664</v>
+        <v>9.542446141608663</v>
       </c>
       <c r="J27" t="n">
         <v>26.18520157151493</v>
       </c>
       <c r="K27" t="n">
-        <v>44.75468020326193</v>
+        <v>44.75468020326192</v>
       </c>
       <c r="L27" t="n">
-        <v>60.17819060386457</v>
+        <v>60.17819060386456</v>
       </c>
       <c r="M27" t="n">
-        <v>70.22511001283215</v>
+        <v>70.22511001283213</v>
       </c>
       <c r="N27" t="n">
-        <v>72.0837597135353</v>
+        <v>72.08375971353529</v>
       </c>
       <c r="O27" t="n">
-        <v>65.94255743233695</v>
+        <v>65.94255743233694</v>
       </c>
       <c r="P27" t="n">
-        <v>52.92471593800739</v>
+        <v>52.92471593800737</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.37877101979345</v>
+        <v>35.37877101979344</v>
       </c>
       <c r="R27" t="n">
         <v>17.20800860899519</v>
       </c>
       <c r="S27" t="n">
-        <v>5.148058523530275</v>
+        <v>5.148058523530274</v>
       </c>
       <c r="T27" t="n">
         <v>1.117134777597243</v>
@@ -33093,31 +33093,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2323586133677707</v>
+        <v>0.2323586133677706</v>
       </c>
       <c r="H28" t="n">
-        <v>2.065879307942545</v>
+        <v>2.065879307942544</v>
       </c>
       <c r="I28" t="n">
-        <v>6.987657209278051</v>
+        <v>6.98765720927805</v>
       </c>
       <c r="J28" t="n">
         <v>16.42775396510138</v>
       </c>
       <c r="K28" t="n">
-        <v>26.99584617127372</v>
+        <v>26.99584617127371</v>
       </c>
       <c r="L28" t="n">
-        <v>34.54538875469566</v>
+        <v>34.54538875469565</v>
       </c>
       <c r="M28" t="n">
-        <v>36.42326882091336</v>
+        <v>36.42326882091335</v>
       </c>
       <c r="N28" t="n">
-        <v>35.55720489836079</v>
+        <v>35.55720489836078</v>
       </c>
       <c r="O28" t="n">
-        <v>32.84283382401909</v>
+        <v>32.84283382401908</v>
       </c>
       <c r="P28" t="n">
         <v>28.10271811131654</v>
@@ -33129,13 +33129,13 @@
         <v>10.44768819742721</v>
       </c>
       <c r="S28" t="n">
-        <v>4.049376925691057</v>
+        <v>4.049376925691056</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9928049843895654</v>
+        <v>0.9928049843895652</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0126741061836966</v>
+        <v>0.01267410618369659</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5180036698194245</v>
+        <v>0.5180036698194244</v>
       </c>
       <c r="H29" t="n">
-        <v>5.305005083538182</v>
+        <v>5.305005083538181</v>
       </c>
       <c r="I29" t="n">
         <v>19.97033648071338</v>
       </c>
       <c r="J29" t="n">
-        <v>43.96491397133642</v>
+        <v>43.96491397133641</v>
       </c>
       <c r="K29" t="n">
-        <v>65.89200931479267</v>
+        <v>65.89200931479266</v>
       </c>
       <c r="L29" t="n">
-        <v>81.7448641250289</v>
+        <v>81.74486412502888</v>
       </c>
       <c r="M29" t="n">
-        <v>90.95691188818009</v>
+        <v>90.95691188818006</v>
       </c>
       <c r="N29" t="n">
-        <v>92.42868981505454</v>
+        <v>92.42868981505451</v>
       </c>
       <c r="O29" t="n">
-        <v>87.27779082328763</v>
+        <v>87.2777908232876</v>
       </c>
       <c r="P29" t="n">
-        <v>74.48957522462057</v>
+        <v>74.48957522462055</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.93856879921241</v>
+        <v>55.9385687992124</v>
       </c>
       <c r="R29" t="n">
-        <v>32.53904802429445</v>
+        <v>32.53904802429444</v>
       </c>
       <c r="S29" t="n">
-        <v>11.80400862601015</v>
+        <v>11.80400862601014</v>
       </c>
       <c r="T29" t="n">
-        <v>2.267561064634532</v>
+        <v>2.267561064634531</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04144029358555395</v>
+        <v>0.04144029358555394</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>2.676747312588825</v>
       </c>
       <c r="I30" t="n">
-        <v>9.542446141608664</v>
+        <v>9.542446141608663</v>
       </c>
       <c r="J30" t="n">
         <v>26.18520157151493</v>
       </c>
       <c r="K30" t="n">
-        <v>44.75468020326193</v>
+        <v>44.75468020326192</v>
       </c>
       <c r="L30" t="n">
-        <v>60.17819060386457</v>
+        <v>60.17819060386456</v>
       </c>
       <c r="M30" t="n">
-        <v>70.22511001283215</v>
+        <v>70.22511001283213</v>
       </c>
       <c r="N30" t="n">
-        <v>72.0837597135353</v>
+        <v>72.08375971353529</v>
       </c>
       <c r="O30" t="n">
-        <v>65.94255743233695</v>
+        <v>65.94255743233694</v>
       </c>
       <c r="P30" t="n">
-        <v>52.92471593800739</v>
+        <v>52.92471593800737</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.37877101979345</v>
+        <v>35.37877101979344</v>
       </c>
       <c r="R30" t="n">
         <v>17.20800860899519</v>
       </c>
       <c r="S30" t="n">
-        <v>5.148058523530275</v>
+        <v>5.148058523530274</v>
       </c>
       <c r="T30" t="n">
         <v>1.117134777597243</v>
@@ -33330,31 +33330,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2323586133677707</v>
+        <v>0.2323586133677706</v>
       </c>
       <c r="H31" t="n">
-        <v>2.065879307942545</v>
+        <v>2.065879307942544</v>
       </c>
       <c r="I31" t="n">
-        <v>6.987657209278051</v>
+        <v>6.98765720927805</v>
       </c>
       <c r="J31" t="n">
         <v>16.42775396510138</v>
       </c>
       <c r="K31" t="n">
-        <v>26.99584617127372</v>
+        <v>26.99584617127371</v>
       </c>
       <c r="L31" t="n">
-        <v>34.54538875469566</v>
+        <v>34.54538875469565</v>
       </c>
       <c r="M31" t="n">
-        <v>36.42326882091336</v>
+        <v>36.42326882091335</v>
       </c>
       <c r="N31" t="n">
-        <v>35.55720489836079</v>
+        <v>35.55720489836078</v>
       </c>
       <c r="O31" t="n">
-        <v>32.84283382401909</v>
+        <v>32.84283382401908</v>
       </c>
       <c r="P31" t="n">
         <v>28.10271811131654</v>
@@ -33366,13 +33366,13 @@
         <v>10.44768819742721</v>
       </c>
       <c r="S31" t="n">
-        <v>4.049376925691057</v>
+        <v>4.049376925691056</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9928049843895654</v>
+        <v>0.9928049843895652</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0126741061836966</v>
+        <v>0.01267410618369659</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5180036698194245</v>
+        <v>0.5180036698194244</v>
       </c>
       <c r="H32" t="n">
-        <v>5.305005083538182</v>
+        <v>5.305005083538181</v>
       </c>
       <c r="I32" t="n">
         <v>19.97033648071338</v>
       </c>
       <c r="J32" t="n">
-        <v>43.96491397133642</v>
+        <v>43.96491397133641</v>
       </c>
       <c r="K32" t="n">
-        <v>65.89200931479267</v>
+        <v>65.89200931479266</v>
       </c>
       <c r="L32" t="n">
-        <v>81.7448641250289</v>
+        <v>81.74486412502888</v>
       </c>
       <c r="M32" t="n">
-        <v>90.95691188818009</v>
+        <v>90.95691188818006</v>
       </c>
       <c r="N32" t="n">
-        <v>92.42868981505454</v>
+        <v>92.42868981505451</v>
       </c>
       <c r="O32" t="n">
-        <v>87.27779082328763</v>
+        <v>87.2777908232876</v>
       </c>
       <c r="P32" t="n">
-        <v>74.48957522462057</v>
+        <v>74.48957522462055</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.93856879921241</v>
+        <v>55.9385687992124</v>
       </c>
       <c r="R32" t="n">
-        <v>32.53904802429445</v>
+        <v>32.53904802429444</v>
       </c>
       <c r="S32" t="n">
-        <v>11.80400862601015</v>
+        <v>11.80400862601014</v>
       </c>
       <c r="T32" t="n">
-        <v>2.267561064634532</v>
+        <v>2.267561064634531</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04144029358555395</v>
+        <v>0.04144029358555394</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,37 +33494,37 @@
         <v>2.676747312588825</v>
       </c>
       <c r="I33" t="n">
-        <v>9.542446141608664</v>
+        <v>9.542446141608663</v>
       </c>
       <c r="J33" t="n">
         <v>26.18520157151493</v>
       </c>
       <c r="K33" t="n">
-        <v>44.75468020326193</v>
+        <v>44.75468020326192</v>
       </c>
       <c r="L33" t="n">
-        <v>60.17819060386457</v>
+        <v>60.17819060386456</v>
       </c>
       <c r="M33" t="n">
-        <v>70.22511001283215</v>
+        <v>70.22511001283213</v>
       </c>
       <c r="N33" t="n">
-        <v>72.0837597135353</v>
+        <v>72.08375971353529</v>
       </c>
       <c r="O33" t="n">
-        <v>65.94255743233695</v>
+        <v>65.94255743233694</v>
       </c>
       <c r="P33" t="n">
-        <v>52.92471593800739</v>
+        <v>52.92471593800737</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.37877101979345</v>
+        <v>35.37877101979344</v>
       </c>
       <c r="R33" t="n">
         <v>17.20800860899519</v>
       </c>
       <c r="S33" t="n">
-        <v>5.148058523530275</v>
+        <v>5.148058523530274</v>
       </c>
       <c r="T33" t="n">
         <v>1.117134777597243</v>
@@ -33567,31 +33567,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2323586133677707</v>
+        <v>0.2323586133677706</v>
       </c>
       <c r="H34" t="n">
-        <v>2.065879307942545</v>
+        <v>2.065879307942544</v>
       </c>
       <c r="I34" t="n">
-        <v>6.987657209278051</v>
+        <v>6.98765720927805</v>
       </c>
       <c r="J34" t="n">
         <v>16.42775396510138</v>
       </c>
       <c r="K34" t="n">
-        <v>26.99584617127372</v>
+        <v>26.99584617127371</v>
       </c>
       <c r="L34" t="n">
-        <v>34.54538875469566</v>
+        <v>34.54538875469565</v>
       </c>
       <c r="M34" t="n">
-        <v>36.42326882091336</v>
+        <v>36.42326882091335</v>
       </c>
       <c r="N34" t="n">
-        <v>35.55720489836079</v>
+        <v>35.55720489836078</v>
       </c>
       <c r="O34" t="n">
-        <v>32.84283382401909</v>
+        <v>32.84283382401908</v>
       </c>
       <c r="P34" t="n">
         <v>28.10271811131654</v>
@@ -33603,13 +33603,13 @@
         <v>10.44768819742721</v>
       </c>
       <c r="S34" t="n">
-        <v>4.049376925691057</v>
+        <v>4.049376925691056</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9928049843895654</v>
+        <v>0.9928049843895652</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0126741061836966</v>
+        <v>0.01267410618369659</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5180036698194245</v>
+        <v>0.5180036698194244</v>
       </c>
       <c r="H35" t="n">
-        <v>5.305005083538182</v>
+        <v>5.305005083538181</v>
       </c>
       <c r="I35" t="n">
         <v>19.97033648071338</v>
       </c>
       <c r="J35" t="n">
-        <v>43.96491397133642</v>
+        <v>43.96491397133641</v>
       </c>
       <c r="K35" t="n">
-        <v>65.89200931479267</v>
+        <v>65.89200931479266</v>
       </c>
       <c r="L35" t="n">
-        <v>81.7448641250289</v>
+        <v>81.74486412502888</v>
       </c>
       <c r="M35" t="n">
-        <v>90.95691188818009</v>
+        <v>90.95691188818006</v>
       </c>
       <c r="N35" t="n">
-        <v>92.42868981505454</v>
+        <v>92.42868981505451</v>
       </c>
       <c r="O35" t="n">
-        <v>87.27779082328763</v>
+        <v>87.2777908232876</v>
       </c>
       <c r="P35" t="n">
-        <v>74.48957522462057</v>
+        <v>74.48957522462055</v>
       </c>
       <c r="Q35" t="n">
-        <v>55.93856879921241</v>
+        <v>55.9385687992124</v>
       </c>
       <c r="R35" t="n">
-        <v>32.53904802429445</v>
+        <v>32.53904802429444</v>
       </c>
       <c r="S35" t="n">
-        <v>11.80400862601015</v>
+        <v>11.80400862601014</v>
       </c>
       <c r="T35" t="n">
-        <v>2.267561064634532</v>
+        <v>2.267561064634531</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04144029358555395</v>
+        <v>0.04144029358555394</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,37 +33731,37 @@
         <v>2.676747312588825</v>
       </c>
       <c r="I36" t="n">
-        <v>9.542446141608664</v>
+        <v>9.542446141608663</v>
       </c>
       <c r="J36" t="n">
         <v>26.18520157151493</v>
       </c>
       <c r="K36" t="n">
-        <v>44.75468020326193</v>
+        <v>44.75468020326192</v>
       </c>
       <c r="L36" t="n">
-        <v>60.17819060386457</v>
+        <v>60.17819060386456</v>
       </c>
       <c r="M36" t="n">
-        <v>70.22511001283215</v>
+        <v>70.22511001283213</v>
       </c>
       <c r="N36" t="n">
-        <v>72.0837597135353</v>
+        <v>72.08375971353529</v>
       </c>
       <c r="O36" t="n">
-        <v>65.94255743233695</v>
+        <v>65.94255743233694</v>
       </c>
       <c r="P36" t="n">
-        <v>52.92471593800739</v>
+        <v>52.92471593800737</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.37877101979345</v>
+        <v>35.37877101979344</v>
       </c>
       <c r="R36" t="n">
         <v>17.20800860899519</v>
       </c>
       <c r="S36" t="n">
-        <v>5.148058523530275</v>
+        <v>5.148058523530274</v>
       </c>
       <c r="T36" t="n">
         <v>1.117134777597243</v>
@@ -33804,31 +33804,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2323586133677707</v>
+        <v>0.2323586133677706</v>
       </c>
       <c r="H37" t="n">
-        <v>2.065879307942545</v>
+        <v>2.065879307942544</v>
       </c>
       <c r="I37" t="n">
-        <v>6.987657209278051</v>
+        <v>6.98765720927805</v>
       </c>
       <c r="J37" t="n">
         <v>16.42775396510138</v>
       </c>
       <c r="K37" t="n">
-        <v>26.99584617127372</v>
+        <v>26.99584617127371</v>
       </c>
       <c r="L37" t="n">
-        <v>34.54538875469566</v>
+        <v>34.54538875469565</v>
       </c>
       <c r="M37" t="n">
-        <v>36.42326882091336</v>
+        <v>36.42326882091335</v>
       </c>
       <c r="N37" t="n">
-        <v>35.55720489836079</v>
+        <v>35.55720489836078</v>
       </c>
       <c r="O37" t="n">
-        <v>32.84283382401909</v>
+        <v>32.84283382401908</v>
       </c>
       <c r="P37" t="n">
         <v>28.10271811131654</v>
@@ -33840,13 +33840,13 @@
         <v>10.44768819742721</v>
       </c>
       <c r="S37" t="n">
-        <v>4.049376925691057</v>
+        <v>4.049376925691056</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9928049843895654</v>
+        <v>0.9928049843895652</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0126741061836966</v>
+        <v>0.01267410618369659</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5180036698194245</v>
+        <v>0.5180036698194244</v>
       </c>
       <c r="H38" t="n">
-        <v>5.305005083538182</v>
+        <v>5.305005083538181</v>
       </c>
       <c r="I38" t="n">
         <v>19.97033648071338</v>
       </c>
       <c r="J38" t="n">
-        <v>43.96491397133642</v>
+        <v>43.96491397133641</v>
       </c>
       <c r="K38" t="n">
-        <v>65.89200931479267</v>
+        <v>65.89200931479266</v>
       </c>
       <c r="L38" t="n">
-        <v>81.7448641250289</v>
+        <v>81.74486412502888</v>
       </c>
       <c r="M38" t="n">
-        <v>90.95691188818009</v>
+        <v>90.95691188818006</v>
       </c>
       <c r="N38" t="n">
-        <v>92.42868981505454</v>
+        <v>92.42868981505451</v>
       </c>
       <c r="O38" t="n">
-        <v>87.27779082328763</v>
+        <v>87.2777908232876</v>
       </c>
       <c r="P38" t="n">
-        <v>74.48957522462057</v>
+        <v>74.48957522462055</v>
       </c>
       <c r="Q38" t="n">
-        <v>55.93856879921241</v>
+        <v>55.9385687992124</v>
       </c>
       <c r="R38" t="n">
-        <v>32.53904802429445</v>
+        <v>32.53904802429444</v>
       </c>
       <c r="S38" t="n">
-        <v>11.80400862601015</v>
+        <v>11.80400862601014</v>
       </c>
       <c r="T38" t="n">
-        <v>2.267561064634532</v>
+        <v>2.267561064634531</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04144029358555395</v>
+        <v>0.04144029358555394</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,37 +33968,37 @@
         <v>2.676747312588825</v>
       </c>
       <c r="I39" t="n">
-        <v>9.542446141608664</v>
+        <v>9.542446141608663</v>
       </c>
       <c r="J39" t="n">
         <v>26.18520157151493</v>
       </c>
       <c r="K39" t="n">
-        <v>44.75468020326193</v>
+        <v>44.75468020326192</v>
       </c>
       <c r="L39" t="n">
-        <v>60.17819060386457</v>
+        <v>60.17819060386456</v>
       </c>
       <c r="M39" t="n">
-        <v>70.22511001283215</v>
+        <v>70.22511001283213</v>
       </c>
       <c r="N39" t="n">
-        <v>72.0837597135353</v>
+        <v>72.08375971353529</v>
       </c>
       <c r="O39" t="n">
-        <v>65.94255743233695</v>
+        <v>65.94255743233694</v>
       </c>
       <c r="P39" t="n">
-        <v>52.92471593800739</v>
+        <v>52.92471593800737</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.37877101979345</v>
+        <v>35.37877101979344</v>
       </c>
       <c r="R39" t="n">
         <v>17.20800860899519</v>
       </c>
       <c r="S39" t="n">
-        <v>5.148058523530275</v>
+        <v>5.148058523530274</v>
       </c>
       <c r="T39" t="n">
         <v>1.117134777597243</v>
@@ -34041,31 +34041,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2323586133677707</v>
+        <v>0.2323586133677706</v>
       </c>
       <c r="H40" t="n">
-        <v>2.065879307942545</v>
+        <v>2.065879307942544</v>
       </c>
       <c r="I40" t="n">
-        <v>6.987657209278051</v>
+        <v>6.98765720927805</v>
       </c>
       <c r="J40" t="n">
         <v>16.42775396510138</v>
       </c>
       <c r="K40" t="n">
-        <v>26.99584617127372</v>
+        <v>26.99584617127371</v>
       </c>
       <c r="L40" t="n">
-        <v>34.54538875469566</v>
+        <v>34.54538875469565</v>
       </c>
       <c r="M40" t="n">
-        <v>36.42326882091336</v>
+        <v>36.42326882091335</v>
       </c>
       <c r="N40" t="n">
-        <v>35.55720489836079</v>
+        <v>35.55720489836078</v>
       </c>
       <c r="O40" t="n">
-        <v>32.84283382401909</v>
+        <v>32.84283382401908</v>
       </c>
       <c r="P40" t="n">
         <v>28.10271811131654</v>
@@ -34077,13 +34077,13 @@
         <v>10.44768819742721</v>
       </c>
       <c r="S40" t="n">
-        <v>4.049376925691057</v>
+        <v>4.049376925691056</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9928049843895654</v>
+        <v>0.9928049843895652</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0126741061836966</v>
+        <v>0.01267410618369659</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5180036698194245</v>
+        <v>0.5180036698194244</v>
       </c>
       <c r="H41" t="n">
-        <v>5.305005083538182</v>
+        <v>5.305005083538181</v>
       </c>
       <c r="I41" t="n">
         <v>19.97033648071338</v>
       </c>
       <c r="J41" t="n">
-        <v>43.96491397133642</v>
+        <v>43.96491397133641</v>
       </c>
       <c r="K41" t="n">
-        <v>65.89200931479267</v>
+        <v>65.89200931479266</v>
       </c>
       <c r="L41" t="n">
-        <v>81.7448641250289</v>
+        <v>81.74486412502888</v>
       </c>
       <c r="M41" t="n">
-        <v>90.95691188818009</v>
+        <v>90.95691188818006</v>
       </c>
       <c r="N41" t="n">
-        <v>92.42868981505454</v>
+        <v>92.42868981505451</v>
       </c>
       <c r="O41" t="n">
-        <v>87.27779082328763</v>
+        <v>87.2777908232876</v>
       </c>
       <c r="P41" t="n">
-        <v>74.48957522462057</v>
+        <v>74.48957522462055</v>
       </c>
       <c r="Q41" t="n">
-        <v>55.93856879921241</v>
+        <v>55.9385687992124</v>
       </c>
       <c r="R41" t="n">
-        <v>32.53904802429445</v>
+        <v>32.53904802429444</v>
       </c>
       <c r="S41" t="n">
-        <v>11.80400862601015</v>
+        <v>11.80400862601014</v>
       </c>
       <c r="T41" t="n">
-        <v>2.267561064634532</v>
+        <v>2.267561064634531</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04144029358555395</v>
+        <v>0.04144029358555394</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,37 +34205,37 @@
         <v>2.676747312588825</v>
       </c>
       <c r="I42" t="n">
-        <v>9.542446141608664</v>
+        <v>9.542446141608663</v>
       </c>
       <c r="J42" t="n">
         <v>26.18520157151493</v>
       </c>
       <c r="K42" t="n">
-        <v>44.75468020326193</v>
+        <v>44.75468020326192</v>
       </c>
       <c r="L42" t="n">
-        <v>60.17819060386457</v>
+        <v>60.17819060386456</v>
       </c>
       <c r="M42" t="n">
-        <v>70.22511001283215</v>
+        <v>70.22511001283213</v>
       </c>
       <c r="N42" t="n">
-        <v>72.0837597135353</v>
+        <v>72.08375971353529</v>
       </c>
       <c r="O42" t="n">
-        <v>65.94255743233695</v>
+        <v>65.94255743233694</v>
       </c>
       <c r="P42" t="n">
-        <v>52.92471593800739</v>
+        <v>52.92471593800737</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.37877101979345</v>
+        <v>35.37877101979344</v>
       </c>
       <c r="R42" t="n">
         <v>17.20800860899519</v>
       </c>
       <c r="S42" t="n">
-        <v>5.148058523530275</v>
+        <v>5.148058523530274</v>
       </c>
       <c r="T42" t="n">
         <v>1.117134777597243</v>
@@ -34278,31 +34278,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2323586133677707</v>
+        <v>0.2323586133677706</v>
       </c>
       <c r="H43" t="n">
-        <v>2.065879307942545</v>
+        <v>2.065879307942544</v>
       </c>
       <c r="I43" t="n">
-        <v>6.987657209278051</v>
+        <v>6.98765720927805</v>
       </c>
       <c r="J43" t="n">
         <v>16.42775396510138</v>
       </c>
       <c r="K43" t="n">
-        <v>26.99584617127372</v>
+        <v>26.99584617127371</v>
       </c>
       <c r="L43" t="n">
-        <v>34.54538875469566</v>
+        <v>34.54538875469565</v>
       </c>
       <c r="M43" t="n">
-        <v>36.42326882091336</v>
+        <v>36.42326882091335</v>
       </c>
       <c r="N43" t="n">
-        <v>35.55720489836079</v>
+        <v>35.55720489836078</v>
       </c>
       <c r="O43" t="n">
-        <v>32.84283382401909</v>
+        <v>32.84283382401908</v>
       </c>
       <c r="P43" t="n">
         <v>28.10271811131654</v>
@@ -34314,13 +34314,13 @@
         <v>10.44768819742721</v>
       </c>
       <c r="S43" t="n">
-        <v>4.049376925691057</v>
+        <v>4.049376925691056</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9928049843895654</v>
+        <v>0.9928049843895652</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0126741061836966</v>
+        <v>0.01267410618369659</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5180036698194245</v>
+        <v>0.5180036698194244</v>
       </c>
       <c r="H44" t="n">
-        <v>5.305005083538182</v>
+        <v>5.305005083538181</v>
       </c>
       <c r="I44" t="n">
         <v>19.97033648071338</v>
       </c>
       <c r="J44" t="n">
-        <v>43.96491397133642</v>
+        <v>43.96491397133641</v>
       </c>
       <c r="K44" t="n">
-        <v>65.89200931479267</v>
+        <v>65.89200931479266</v>
       </c>
       <c r="L44" t="n">
-        <v>81.7448641250289</v>
+        <v>81.74486412502888</v>
       </c>
       <c r="M44" t="n">
-        <v>90.95691188818009</v>
+        <v>90.95691188818006</v>
       </c>
       <c r="N44" t="n">
-        <v>92.42868981505454</v>
+        <v>92.42868981505451</v>
       </c>
       <c r="O44" t="n">
-        <v>87.27779082328763</v>
+        <v>87.2777908232876</v>
       </c>
       <c r="P44" t="n">
-        <v>74.48957522462057</v>
+        <v>74.48957522462055</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.93856879921241</v>
+        <v>55.9385687992124</v>
       </c>
       <c r="R44" t="n">
-        <v>32.53904802429445</v>
+        <v>32.53904802429444</v>
       </c>
       <c r="S44" t="n">
-        <v>11.80400862601015</v>
+        <v>11.80400862601014</v>
       </c>
       <c r="T44" t="n">
-        <v>2.267561064634532</v>
+        <v>2.267561064634531</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04144029358555395</v>
+        <v>0.04144029358555394</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,37 +34442,37 @@
         <v>2.676747312588825</v>
       </c>
       <c r="I45" t="n">
-        <v>9.542446141608664</v>
+        <v>9.542446141608663</v>
       </c>
       <c r="J45" t="n">
         <v>26.18520157151493</v>
       </c>
       <c r="K45" t="n">
-        <v>44.75468020326193</v>
+        <v>44.75468020326192</v>
       </c>
       <c r="L45" t="n">
-        <v>60.17819060386457</v>
+        <v>60.17819060386456</v>
       </c>
       <c r="M45" t="n">
-        <v>70.22511001283215</v>
+        <v>70.22511001283213</v>
       </c>
       <c r="N45" t="n">
-        <v>72.0837597135353</v>
+        <v>72.08375971353529</v>
       </c>
       <c r="O45" t="n">
-        <v>65.94255743233695</v>
+        <v>65.94255743233694</v>
       </c>
       <c r="P45" t="n">
-        <v>52.92471593800739</v>
+        <v>52.92471593800737</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.37877101979345</v>
+        <v>35.37877101979344</v>
       </c>
       <c r="R45" t="n">
         <v>17.20800860899519</v>
       </c>
       <c r="S45" t="n">
-        <v>5.148058523530275</v>
+        <v>5.148058523530274</v>
       </c>
       <c r="T45" t="n">
         <v>1.117134777597243</v>
@@ -34515,31 +34515,31 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2323586133677707</v>
+        <v>0.2323586133677706</v>
       </c>
       <c r="H46" t="n">
-        <v>2.065879307942545</v>
+        <v>2.065879307942544</v>
       </c>
       <c r="I46" t="n">
-        <v>6.987657209278051</v>
+        <v>6.98765720927805</v>
       </c>
       <c r="J46" t="n">
         <v>16.42775396510138</v>
       </c>
       <c r="K46" t="n">
-        <v>26.99584617127372</v>
+        <v>26.99584617127371</v>
       </c>
       <c r="L46" t="n">
-        <v>34.54538875469566</v>
+        <v>34.54538875469565</v>
       </c>
       <c r="M46" t="n">
-        <v>36.42326882091336</v>
+        <v>36.42326882091335</v>
       </c>
       <c r="N46" t="n">
-        <v>35.55720489836079</v>
+        <v>35.55720489836078</v>
       </c>
       <c r="O46" t="n">
-        <v>32.84283382401909</v>
+        <v>32.84283382401908</v>
       </c>
       <c r="P46" t="n">
         <v>28.10271811131654</v>
@@ -34551,13 +34551,13 @@
         <v>10.44768819742721</v>
       </c>
       <c r="S46" t="n">
-        <v>4.049376925691057</v>
+        <v>4.049376925691056</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9928049843895654</v>
+        <v>0.9928049843895652</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0126741061836966</v>
+        <v>0.01267410618369659</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="O8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="K8" t="n">
+      <c r="P8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="L8" t="n">
+      <c r="Q8" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="M8" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="N9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="K9" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,7 +35337,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="N10" t="n">
         <v>11.94294668035388</v>
@@ -35346,7 +35346,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="P10" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.6907162670996</v>
+        <v>116.6907162670997</v>
       </c>
       <c r="K11" t="n">
         <v>308.4580416832601</v>
@@ -35416,19 +35416,19 @@
         <v>433.1442308774998</v>
       </c>
       <c r="M11" t="n">
-        <v>488.1681909317033</v>
+        <v>488.1681909317032</v>
       </c>
       <c r="N11" t="n">
-        <v>474.5815773784038</v>
+        <v>474.5815773784037</v>
       </c>
       <c r="O11" t="n">
-        <v>395.3632296847361</v>
+        <v>395.363229684736</v>
       </c>
       <c r="P11" t="n">
-        <v>304.9510867963915</v>
+        <v>304.9510867963919</v>
       </c>
       <c r="Q11" t="n">
-        <v>151.3246836340983</v>
+        <v>151.3246836340982</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>67.21294147899354</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>276.5633191529474</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>343.7762606319409</v>
       </c>
       <c r="M12" t="n">
         <v>560.1577903261922</v>
@@ -35504,7 +35504,7 @@
         <v>462.1041238809742</v>
       </c>
       <c r="P12" t="n">
-        <v>358.0721091457824</v>
+        <v>358.0721091457823</v>
       </c>
       <c r="Q12" t="n">
         <v>194.7440536315048</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>38.31488192935248</v>
+        <v>38.31488192935257</v>
       </c>
       <c r="K13" t="n">
-        <v>142.2832643199821</v>
+        <v>142.2832643199822</v>
       </c>
       <c r="L13" t="n">
-        <v>217.5124954444304</v>
+        <v>217.5124954444305</v>
       </c>
       <c r="M13" t="n">
-        <v>236.9524227099837</v>
+        <v>236.9524227099838</v>
       </c>
       <c r="N13" t="n">
-        <v>236.5195260823792</v>
+        <v>236.5195260823793</v>
       </c>
       <c r="O13" t="n">
-        <v>213.6448567717641</v>
+        <v>213.6448567717642</v>
       </c>
       <c r="P13" t="n">
         <v>173.0510412938577</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.64869157437712</v>
+        <v>62.6486915743772</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.6907162670996</v>
+        <v>116.6907162670997</v>
       </c>
       <c r="K14" t="n">
         <v>308.4580416832601</v>
@@ -35653,19 +35653,19 @@
         <v>433.1442308774998</v>
       </c>
       <c r="M14" t="n">
-        <v>488.1681909317033</v>
+        <v>488.1681909317032</v>
       </c>
       <c r="N14" t="n">
-        <v>474.5815773784038</v>
+        <v>474.5815773784039</v>
       </c>
       <c r="O14" t="n">
-        <v>395.3632296847361</v>
+        <v>395.363229684736</v>
       </c>
       <c r="P14" t="n">
         <v>304.9510867963915</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.3246836340983</v>
+        <v>151.3246836340982</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>87.04797584737973</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>276.5633191529474</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>429.6952059272137</v>
+        <v>343.7762606319409</v>
       </c>
       <c r="M15" t="n">
         <v>560.1577903261922</v>
       </c>
       <c r="N15" t="n">
-        <v>333.7275186283512</v>
+        <v>588.5137052924465</v>
       </c>
       <c r="O15" t="n">
         <v>462.1041238809742</v>
       </c>
       <c r="P15" t="n">
-        <v>358.0721091457824</v>
+        <v>358.0721091457823</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>194.7440536315048</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>38.31488192935251</v>
+        <v>38.31488192935252</v>
       </c>
       <c r="K16" t="n">
         <v>142.2832643199822</v>
@@ -35817,7 +35817,7 @@
         <v>236.5195260823793</v>
       </c>
       <c r="O16" t="n">
-        <v>213.6448567717642</v>
+        <v>213.6448567717641</v>
       </c>
       <c r="P16" t="n">
         <v>173.0510412938577</v>
@@ -35890,13 +35890,13 @@
         <v>433.1442308774998</v>
       </c>
       <c r="M17" t="n">
-        <v>488.1681909317033</v>
+        <v>488.1681909317034</v>
       </c>
       <c r="N17" t="n">
-        <v>474.5815773784038</v>
+        <v>474.5815773784037</v>
       </c>
       <c r="O17" t="n">
-        <v>395.3632296847361</v>
+        <v>395.363229684736</v>
       </c>
       <c r="P17" t="n">
         <v>304.9510867963915</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>87.04797584737973</v>
+        <v>87.04797584737972</v>
       </c>
       <c r="K18" t="n">
-        <v>276.5633191529474</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>429.6952059272137</v>
       </c>
       <c r="M18" t="n">
-        <v>560.1577903261922</v>
+        <v>387.1908691835397</v>
       </c>
       <c r="N18" t="n">
-        <v>333.7275186283512</v>
+        <v>588.5137052924465</v>
       </c>
       <c r="O18" t="n">
         <v>462.1041238809742</v>
       </c>
       <c r="P18" t="n">
-        <v>358.0721091457824</v>
+        <v>358.0721091457823</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>194.7440536315048</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>132.301062607544</v>
       </c>
       <c r="P19" t="n">
-        <v>91.70724712963755</v>
+        <v>91.70724712963754</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.6907162670996</v>
+        <v>116.6907162670997</v>
       </c>
       <c r="K20" t="n">
         <v>308.4580416832601</v>
@@ -36127,13 +36127,13 @@
         <v>433.1442308774998</v>
       </c>
       <c r="M20" t="n">
-        <v>488.1681909317033</v>
+        <v>488.1681909317032</v>
       </c>
       <c r="N20" t="n">
-        <v>474.5815773784038</v>
+        <v>474.5815773784037</v>
       </c>
       <c r="O20" t="n">
-        <v>395.3632296847361</v>
+        <v>395.363229684736</v>
       </c>
       <c r="P20" t="n">
         <v>304.9510867963915</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>87.04797584737972</v>
       </c>
       <c r="K21" t="n">
-        <v>108.8251083362319</v>
+        <v>276.5633191529474</v>
       </c>
       <c r="L21" t="n">
         <v>429.6952059272137</v>
@@ -36209,16 +36209,16 @@
         <v>560.1577903261922</v>
       </c>
       <c r="N21" t="n">
-        <v>588.5137052924465</v>
+        <v>138.9834649968466</v>
       </c>
       <c r="O21" t="n">
         <v>462.1041238809742</v>
       </c>
       <c r="P21" t="n">
-        <v>358.0721091457824</v>
+        <v>358.0721091457823</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>194.7440536315048</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>132.301062607544</v>
       </c>
       <c r="P22" t="n">
-        <v>91.70724712963755</v>
+        <v>91.70724712963754</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36364,13 +36364,13 @@
         <v>433.1442308774998</v>
       </c>
       <c r="M23" t="n">
-        <v>488.1681909317031</v>
+        <v>488.1681909317034</v>
       </c>
       <c r="N23" t="n">
-        <v>474.5815773784038</v>
+        <v>474.5815773784037</v>
       </c>
       <c r="O23" t="n">
-        <v>395.3632296847361</v>
+        <v>395.363229684736</v>
       </c>
       <c r="P23" t="n">
         <v>304.9510867963915</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>87.04797584737972</v>
       </c>
       <c r="K24" t="n">
         <v>276.5633191529474</v>
       </c>
       <c r="L24" t="n">
-        <v>261.9569951104982</v>
+        <v>429.6952059272137</v>
       </c>
       <c r="M24" t="n">
         <v>560.1577903261922</v>
       </c>
       <c r="N24" t="n">
-        <v>588.5137052924465</v>
+        <v>138.9834649968466</v>
       </c>
       <c r="O24" t="n">
         <v>462.1041238809742</v>
       </c>
       <c r="P24" t="n">
-        <v>358.0721091457824</v>
+        <v>358.0721091457823</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>194.7440536315048</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36531,7 +36531,7 @@
         <v>132.301062607544</v>
       </c>
       <c r="P25" t="n">
-        <v>91.70724712963755</v>
+        <v>91.70724712963754</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>133.7233611627382</v>
+        <v>219.6113218266834</v>
       </c>
       <c r="K26" t="n">
-        <v>411.3786472428438</v>
+        <v>411.3786472428437</v>
       </c>
       <c r="L26" t="n">
         <v>536.0648364370835</v>
@@ -36607,7 +36607,7 @@
         <v>577.5021829379874</v>
       </c>
       <c r="O26" t="n">
-        <v>498.2838352443198</v>
+        <v>412.395874580375</v>
       </c>
       <c r="P26" t="n">
         <v>407.8716923559751</v>
@@ -36616,7 +36616,7 @@
         <v>254.2452891936819</v>
       </c>
       <c r="R26" t="n">
-        <v>45.72774994477293</v>
+        <v>45.72774994477292</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>276.5633191529474</v>
       </c>
       <c r="L27" t="n">
-        <v>343.7762606319406</v>
+        <v>429.6952059272137</v>
       </c>
       <c r="M27" t="n">
         <v>560.1577903261922</v>
       </c>
       <c r="N27" t="n">
-        <v>588.5137052924465</v>
+        <v>226.0314408442261</v>
       </c>
       <c r="O27" t="n">
         <v>462.1041238809742</v>
       </c>
       <c r="P27" t="n">
-        <v>358.0721091457824</v>
+        <v>358.0721091457823</v>
       </c>
       <c r="Q27" t="n">
         <v>194.7440536315048</v>
@@ -36759,7 +36759,7 @@
         <v>239.089306839794</v>
       </c>
       <c r="M28" t="n">
-        <v>258.5292341053473</v>
+        <v>258.5292341053472</v>
       </c>
       <c r="N28" t="n">
         <v>258.0963374777428</v>
@@ -36771,7 +36771,7 @@
         <v>194.6278526892212</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.22550296974069</v>
+        <v>84.22550296974067</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>219.6113218266834</v>
       </c>
       <c r="K29" t="n">
-        <v>411.3786472428438</v>
+        <v>411.3786472428437</v>
       </c>
       <c r="L29" t="n">
         <v>536.0648364370835</v>
       </c>
       <c r="M29" t="n">
-        <v>505.2008358273419</v>
+        <v>505.2008358273421</v>
       </c>
       <c r="N29" t="n">
         <v>577.5021829379874</v>
       </c>
       <c r="O29" t="n">
-        <v>498.2838352443198</v>
+        <v>498.2838352443197</v>
       </c>
       <c r="P29" t="n">
-        <v>407.8716923559752</v>
+        <v>407.8716923559751</v>
       </c>
       <c r="Q29" t="n">
         <v>254.245289193682</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.04797584737973</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>276.5633191529474</v>
@@ -36920,13 +36920,13 @@
         <v>560.1577903261922</v>
       </c>
       <c r="N30" t="n">
-        <v>138.9834649968462</v>
+        <v>226.0314408442261</v>
       </c>
       <c r="O30" t="n">
         <v>462.1041238809742</v>
       </c>
       <c r="P30" t="n">
-        <v>358.0721091457824</v>
+        <v>358.0721091457823</v>
       </c>
       <c r="Q30" t="n">
         <v>194.7440536315048</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.89169332471606</v>
+        <v>59.89169332471607</v>
       </c>
       <c r="K31" t="n">
         <v>163.8600757153457</v>
@@ -37008,7 +37008,7 @@
         <v>194.6278526892212</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.22550296974069</v>
+        <v>84.2255029697407</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.6907162670997</v>
+        <v>222.7012009918244</v>
       </c>
       <c r="K32" t="n">
-        <v>359.4928945612961</v>
+        <v>414.4685264079848</v>
       </c>
       <c r="L32" t="n">
-        <v>539.1547156022245</v>
+        <v>433.1442308774998</v>
       </c>
       <c r="M32" t="n">
-        <v>594.178675656428</v>
+        <v>539.2030438097388</v>
       </c>
       <c r="N32" t="n">
         <v>580.5920621031285</v>
@@ -37090,7 +37090,7 @@
         <v>257.335168358823</v>
       </c>
       <c r="R32" t="n">
-        <v>48.81762910991402</v>
+        <v>48.81762910991398</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.04797584737973</v>
+        <v>87.04797584737972</v>
       </c>
       <c r="K33" t="n">
         <v>276.5633191529474</v>
@@ -37154,16 +37154,16 @@
         <v>429.6952059272137</v>
       </c>
       <c r="M33" t="n">
-        <v>560.1577903261922</v>
+        <v>110.6275500305926</v>
       </c>
       <c r="N33" t="n">
         <v>588.5137052924465</v>
       </c>
       <c r="O33" t="n">
-        <v>12.57388358537465</v>
+        <v>462.1041238809742</v>
       </c>
       <c r="P33" t="n">
-        <v>358.0721091457824</v>
+        <v>358.0721091457823</v>
       </c>
       <c r="Q33" t="n">
         <v>194.7440536315048</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.98157248985713</v>
+        <v>62.9815724898571</v>
       </c>
       <c r="K34" t="n">
-        <v>91.78906191008016</v>
+        <v>166.9499548804867</v>
       </c>
       <c r="L34" t="n">
-        <v>242.1791860049351</v>
+        <v>242.179186004935</v>
       </c>
       <c r="M34" t="n">
         <v>261.6191132704883</v>
       </c>
       <c r="N34" t="n">
-        <v>261.1862166428839</v>
+        <v>186.0253236724779</v>
       </c>
       <c r="O34" t="n">
-        <v>238.3115473322688</v>
+        <v>238.3115473322687</v>
       </c>
       <c r="P34" t="n">
         <v>197.7177318543623</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.31538213488176</v>
+        <v>87.31538213488173</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,13 +37312,13 @@
         <v>433.1442308774998</v>
       </c>
       <c r="M35" t="n">
-        <v>488.1681909317033</v>
+        <v>488.1681909317032</v>
       </c>
       <c r="N35" t="n">
-        <v>474.5815773784038</v>
+        <v>474.5815773784037</v>
       </c>
       <c r="O35" t="n">
-        <v>395.3632296847361</v>
+        <v>395.363229684736</v>
       </c>
       <c r="P35" t="n">
         <v>304.9510867963915</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>87.04797584737972</v>
       </c>
       <c r="K36" t="n">
         <v>276.5633191529474</v>
       </c>
       <c r="L36" t="n">
-        <v>261.9569951104982</v>
+        <v>429.6952059272137</v>
       </c>
       <c r="M36" t="n">
-        <v>560.1577903261922</v>
+        <v>110.6275500305923</v>
       </c>
       <c r="N36" t="n">
         <v>588.5137052924465</v>
@@ -37400,10 +37400,10 @@
         <v>462.1041238809742</v>
       </c>
       <c r="P36" t="n">
-        <v>358.0721091457824</v>
+        <v>358.0721091457823</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>194.7440536315048</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>132.301062607544</v>
       </c>
       <c r="P37" t="n">
-        <v>91.70724712963755</v>
+        <v>91.70724712963754</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>433.1442308774998</v>
       </c>
       <c r="M38" t="n">
-        <v>488.1681909317033</v>
+        <v>488.1681909317032</v>
       </c>
       <c r="N38" t="n">
-        <v>474.5815773784038</v>
+        <v>474.5815773784037</v>
       </c>
       <c r="O38" t="n">
-        <v>395.3632296847361</v>
+        <v>395.363229684736</v>
       </c>
       <c r="P38" t="n">
         <v>304.9510867963915</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>108.8251083362319</v>
+        <v>276.5633191529474</v>
       </c>
       <c r="L39" t="n">
         <v>429.6952059272137</v>
       </c>
       <c r="M39" t="n">
-        <v>560.1577903261922</v>
+        <v>392.4195795094766</v>
       </c>
       <c r="N39" t="n">
         <v>588.5137052924465</v>
@@ -37637,7 +37637,7 @@
         <v>462.1041238809742</v>
       </c>
       <c r="P39" t="n">
-        <v>358.0721091457824</v>
+        <v>358.0721091457823</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>132.301062607544</v>
       </c>
       <c r="P40" t="n">
-        <v>91.70724712963755</v>
+        <v>91.70724712963754</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>433.1442308774998</v>
       </c>
       <c r="M41" t="n">
-        <v>488.1681909317033</v>
+        <v>488.1681909317032</v>
       </c>
       <c r="N41" t="n">
-        <v>474.5815773784038</v>
+        <v>474.5815773784037</v>
       </c>
       <c r="O41" t="n">
-        <v>395.3632296847361</v>
+        <v>395.363229684736</v>
       </c>
       <c r="P41" t="n">
         <v>304.9510867963915</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>87.04797584737973</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>276.5633191529474</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>429.6952059272137</v>
@@ -37871,10 +37871,10 @@
         <v>588.5137052924465</v>
       </c>
       <c r="O42" t="n">
-        <v>12.57388358537419</v>
+        <v>462.1041238809742</v>
       </c>
       <c r="P42" t="n">
-        <v>358.0721091457824</v>
+        <v>272.1531638505095</v>
       </c>
       <c r="Q42" t="n">
         <v>194.7440536315048</v>
@@ -37953,7 +37953,7 @@
         <v>132.301062607544</v>
       </c>
       <c r="P43" t="n">
-        <v>91.70724712963755</v>
+        <v>91.70724712963754</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.6907162670991</v>
+        <v>116.6907162670997</v>
       </c>
       <c r="K44" t="n">
         <v>308.4580416832601</v>
@@ -38023,13 +38023,13 @@
         <v>433.1442308774998</v>
       </c>
       <c r="M44" t="n">
-        <v>488.1681909317033</v>
+        <v>488.1681909317032</v>
       </c>
       <c r="N44" t="n">
-        <v>474.5815773784038</v>
+        <v>474.5815773784037</v>
       </c>
       <c r="O44" t="n">
-        <v>395.3632296847361</v>
+        <v>395.363229684736</v>
       </c>
       <c r="P44" t="n">
         <v>304.9510867963915</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>87.04797584737973</v>
+        <v>87.04797584737972</v>
       </c>
       <c r="K45" t="n">
         <v>276.5633191529474</v>
@@ -38111,7 +38111,7 @@
         <v>462.1041238809742</v>
       </c>
       <c r="P45" t="n">
-        <v>358.0721091457824</v>
+        <v>358.0721091457823</v>
       </c>
       <c r="Q45" t="n">
         <v>194.7440536315048</v>
@@ -38190,7 +38190,7 @@
         <v>132.301062607544</v>
       </c>
       <c r="P46" t="n">
-        <v>91.70724712963755</v>
+        <v>91.70724712963754</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
